--- a/parser/test_csv_files/(key)farm_with_a_little_of_everything.xlsx
+++ b/parser/test_csv_files/(key)farm_with_a_little_of_everything.xlsx
@@ -1,12 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kh882\Downloads\AgBiz_Parser\test_csv_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DB1192-65EF-4818-90A2-E57FD40E45CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="farm_with_a_little_of_everythin" sheetId="1" r:id="rId4"/>
+    <sheet name="farm_with_a_little_of_everythin" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -904,26 +924,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
     <numFmt numFmtId="166" formatCode="m&quot;/&quot;d&quot;/&quot;yy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -931,7 +955,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -995,325 +1019,196 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="107">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1503,27 +1398,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H1203"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="32.57"/>
-    <col customWidth="1" min="3" max="3" width="39.14"/>
-    <col customWidth="1" min="4" max="4" width="48.0"/>
-    <col customWidth="1" min="7" max="7" width="48.0"/>
-    <col customWidth="1" min="8" max="8" width="23.43"/>
+    <col min="2" max="2" width="32.54296875" customWidth="1"/>
+    <col min="3" max="3" width="39.08984375" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="7" max="7" width="48" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1549,9 +1447,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44199.0</v>
+        <v>44199</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -1564,15 +1462,15 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7">
-        <v>1100000.0</v>
+        <v>1100000</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44286.0</v>
+        <v>44286</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -1585,15 +1483,15 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7">
-        <v>1150000.0</v>
+        <v>1150000</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44469.0</v>
+        <v>44469</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -1606,7 +1504,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7">
-        <v>1250000.0</v>
+        <v>1250000</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
@@ -1616,7 +1514,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1625,9 +1523,9 @@
       <c r="F5" s="15"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
-        <v>44199.0</v>
+        <v>44199</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>14</v>
@@ -1640,15 +1538,15 @@
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="20">
-        <v>1100000.0</v>
+        <v>1100000</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
-        <v>44286.0</v>
+        <v>44286</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>14</v>
@@ -1661,15 +1559,15 @@
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20">
-        <v>1150000.0</v>
+        <v>1150000</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <v>44469.0</v>
+        <v>44469</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>14</v>
@@ -1682,7 +1580,7 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20">
-        <v>1250000.0</v>
+        <v>1250000</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>19</v>
@@ -1692,7 +1590,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="12"/>
       <c r="C9" s="23"/>
@@ -1701,9 +1599,9 @@
       <c r="F9" s="15"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
-        <v>44301.0</v>
+        <v>44301</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>20</v>
@@ -1716,15 +1614,15 @@
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>8</v>
@@ -1737,7 +1635,7 @@
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="29">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>24</v>
@@ -1747,12 +1645,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="31"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
-        <v>44554.0</v>
+        <v>44554</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>25</v>
@@ -1765,7 +1663,7 @@
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="36">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="35">
@@ -1773,7 +1671,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -1781,9 +1679,9 @@
       <c r="E14" s="14"/>
       <c r="F14" s="37"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
-        <v>44377.0</v>
+        <v>44377</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>28</v>
@@ -1796,15 +1694,15 @@
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="41">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G15" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
-        <v>44377.0</v>
+        <v>44377</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>32</v>
@@ -1817,15 +1715,15 @@
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="41">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
-        <v>44377.0</v>
+        <v>44377</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>33</v>
@@ -1838,15 +1736,15 @@
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="41">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G17" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
-        <v>44377.0</v>
+        <v>44377</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>34</v>
@@ -1859,15 +1757,15 @@
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="41">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
-        <v>44377.0</v>
+        <v>44377</v>
       </c>
       <c r="B19" s="39" t="s">
         <v>35</v>
@@ -1880,7 +1778,7 @@
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="41">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="G19" s="39" t="s">
         <v>31</v>
@@ -1890,12 +1788,12 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="31"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
-        <v>44274.0</v>
+        <v>44274</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>36</v>
@@ -1906,7 +1804,7 @@
       <c r="D21" s="44"/>
       <c r="E21" s="45"/>
       <c r="F21" s="46">
-        <v>12500.0</v>
+        <v>12500</v>
       </c>
       <c r="G21" s="47" t="s">
         <v>38</v>
@@ -1916,12 +1814,12 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="31"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
-        <v>44373.0</v>
+        <v>44373</v>
       </c>
       <c r="B23" s="50" t="s">
         <v>39</v>
@@ -1940,9 +1838,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49">
-        <v>44373.0</v>
+        <v>44373</v>
       </c>
       <c r="B24" s="50" t="s">
         <v>39</v>
@@ -1961,9 +1859,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
-        <v>44373.0</v>
+        <v>44373</v>
       </c>
       <c r="B25" s="50" t="s">
         <v>39</v>
@@ -1982,9 +1880,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49">
-        <v>44211.0</v>
+        <v>44211</v>
       </c>
       <c r="B26" s="50" t="s">
         <v>46</v>
@@ -1996,16 +1894,16 @@
         <v>47</v>
       </c>
       <c r="E26" s="51">
-        <v>-9.3</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="F26" s="52"/>
       <c r="G26" s="50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49">
-        <v>44211.0</v>
+        <v>44211</v>
       </c>
       <c r="B27" s="50" t="s">
         <v>49</v>
@@ -2017,16 +1915,16 @@
         <v>50</v>
       </c>
       <c r="E27" s="51">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="F27" s="52"/>
       <c r="G27" s="50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="53">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B28" s="50" t="s">
         <v>52</v>
@@ -2045,9 +1943,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B29" s="50" t="s">
         <v>52</v>
@@ -2066,9 +1964,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="53">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B30" s="50" t="s">
         <v>52</v>
@@ -2087,9 +1985,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B31" s="50" t="s">
         <v>52</v>
@@ -2108,9 +2006,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B32" s="50" t="s">
         <v>52</v>
@@ -2129,9 +2027,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B33" s="50" t="s">
         <v>52</v>
@@ -2150,9 +2048,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B34" s="50" t="s">
         <v>52</v>
@@ -2171,9 +2069,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B35" s="50" t="s">
         <v>52</v>
@@ -2192,9 +2090,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B36" s="50" t="s">
         <v>52</v>
@@ -2213,9 +2111,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B37" s="50" t="s">
         <v>52</v>
@@ -2234,9 +2132,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="53">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B38" s="50" t="s">
         <v>52</v>
@@ -2255,9 +2153,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="53">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B39" s="50" t="s">
         <v>52</v>
@@ -2276,9 +2174,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="54">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B40" s="50" t="s">
         <v>52</v>
@@ -2297,9 +2195,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="54">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B41" s="50" t="s">
         <v>52</v>
@@ -2318,9 +2216,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="54">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B42" s="50" t="s">
         <v>52</v>
@@ -2339,9 +2237,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="54">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B43" s="50" t="s">
         <v>52</v>
@@ -2360,9 +2258,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="54">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B44" s="50" t="s">
         <v>52</v>
@@ -2381,9 +2279,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="54">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B45" s="50" t="s">
         <v>52</v>
@@ -2402,9 +2300,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="54">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B46" s="50" t="s">
         <v>52</v>
@@ -2423,9 +2321,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="54">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B47" s="50" t="s">
         <v>52</v>
@@ -2444,9 +2342,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="54">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B48" s="50" t="s">
         <v>52</v>
@@ -2465,9 +2363,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="54">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B49" s="50" t="s">
         <v>52</v>
@@ -2486,9 +2384,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="54">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B50" s="50" t="s">
         <v>52</v>
@@ -2507,9 +2405,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="54">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B51" s="50" t="s">
         <v>52</v>
@@ -2529,19 +2427,19 @@
       </c>
       <c r="H51" s="51">
         <f>SUM(E23:F51)</f>
-        <v>-548.64</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>-548.64000000000021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="55"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="E52" s="31"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="56">
-        <v>44207.0</v>
+        <v>44207</v>
       </c>
       <c r="B53" s="57" t="s">
         <v>79</v>
@@ -2560,9 +2458,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="56">
-        <v>44288.0</v>
+        <v>44288</v>
       </c>
       <c r="B54" s="57" t="s">
         <v>79</v>
@@ -2581,9 +2479,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="56">
-        <v>44525.0</v>
+        <v>44525</v>
       </c>
       <c r="B55" s="57" t="s">
         <v>79</v>
@@ -2606,7 +2504,7 @@
         <v>-238.3</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="60"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -2616,9 +2514,9 @@
       </c>
       <c r="G56" s="12"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="62">
-        <v>44345.0</v>
+        <v>44345</v>
       </c>
       <c r="B57" s="63" t="s">
         <v>84</v>
@@ -2637,9 +2535,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="62">
-        <v>44346.0</v>
+        <v>44346</v>
       </c>
       <c r="B58" s="63" t="s">
         <v>84</v>
@@ -2659,10 +2557,10 @@
       </c>
       <c r="H58" s="64">
         <f>SUM(E57:F58)</f>
-        <v>-108.48</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>-108.47999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="60"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -2670,9 +2568,9 @@
       <c r="E59" s="61"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="66">
-        <v>44377.0</v>
+        <v>44377</v>
       </c>
       <c r="B60" s="67" t="s">
         <v>28</v>
@@ -2691,9 +2589,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="66">
-        <v>44377.0</v>
+        <v>44377</v>
       </c>
       <c r="B61" s="67" t="s">
         <v>32</v>
@@ -2712,9 +2610,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="66">
-        <v>44377.0</v>
+        <v>44377</v>
       </c>
       <c r="B62" s="67" t="s">
         <v>33</v>
@@ -2733,9 +2631,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="66">
-        <v>44377.0</v>
+        <v>44377</v>
       </c>
       <c r="B63" s="67" t="s">
         <v>34</v>
@@ -2754,9 +2652,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="66">
-        <v>44377.0</v>
+        <v>44377</v>
       </c>
       <c r="B64" s="67" t="s">
         <v>35</v>
@@ -2776,10 +2674,10 @@
       </c>
       <c r="H64" s="68">
         <f>SUM(E60:F64)</f>
-        <v>-1126.8</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>-1126.8000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="60"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -2787,9 +2685,9 @@
       <c r="E65" s="61"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="70">
-        <v>44561.0</v>
+        <v>44561</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8" t="s">
@@ -2806,9 +2704,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="70">
-        <v>44561.0</v>
+        <v>44561</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8" t="s">
@@ -2825,9 +2723,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="70">
-        <v>44561.0</v>
+        <v>44561</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8" t="s">
@@ -2844,9 +2742,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="70">
-        <v>44561.0</v>
+        <v>44561</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8" t="s">
@@ -2863,9 +2761,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="70">
-        <v>44561.0</v>
+        <v>44561</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8" t="s">
@@ -2882,9 +2780,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="70">
-        <v>44561.0</v>
+        <v>44561</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8" t="s">
@@ -2901,9 +2799,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="70">
-        <v>44561.0</v>
+        <v>44561</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8" t="s">
@@ -2913,16 +2811,16 @@
         <v>90</v>
       </c>
       <c r="E72" s="10">
-        <v>-50.0</v>
+        <v>-50</v>
       </c>
       <c r="F72" s="71"/>
       <c r="G72" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="70">
-        <v>44561.0</v>
+        <v>44561</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8" t="s">
@@ -2940,10 +2838,10 @@
       </c>
       <c r="H73" s="10">
         <f>SUM(E66:F73)</f>
-        <v>-403.29</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>-403.28999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="60"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -2951,9 +2849,9 @@
       <c r="E74" s="61"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="72">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>97</v>
@@ -2965,16 +2863,16 @@
         <v>99</v>
       </c>
       <c r="E75" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F75" s="73"/>
       <c r="G75" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="72">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>97</v>
@@ -2986,16 +2884,16 @@
         <v>99</v>
       </c>
       <c r="E76" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F76" s="73"/>
       <c r="G76" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="72">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>97</v>
@@ -3007,16 +2905,16 @@
         <v>99</v>
       </c>
       <c r="E77" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F77" s="73"/>
       <c r="G77" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="72">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>97</v>
@@ -3028,16 +2926,16 @@
         <v>99</v>
       </c>
       <c r="E78" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F78" s="73"/>
       <c r="G78" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="72">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>97</v>
@@ -3049,16 +2947,16 @@
         <v>99</v>
       </c>
       <c r="E79" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F79" s="73"/>
       <c r="G79" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="72">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>97</v>
@@ -3070,16 +2968,16 @@
         <v>99</v>
       </c>
       <c r="E80" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F80" s="73"/>
       <c r="G80" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="72">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>97</v>
@@ -3091,16 +2989,16 @@
         <v>99</v>
       </c>
       <c r="E81" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F81" s="73"/>
       <c r="G81" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="72">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>97</v>
@@ -3112,16 +3010,16 @@
         <v>99</v>
       </c>
       <c r="E82" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F82" s="73"/>
       <c r="G82" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="72">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>97</v>
@@ -3133,16 +3031,16 @@
         <v>99</v>
       </c>
       <c r="E83" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F83" s="73"/>
       <c r="G83" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="72">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>97</v>
@@ -3154,16 +3052,16 @@
         <v>99</v>
       </c>
       <c r="E84" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F84" s="73"/>
       <c r="G84" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="72">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>97</v>
@@ -3175,16 +3073,16 @@
         <v>99</v>
       </c>
       <c r="E85" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F85" s="73"/>
       <c r="G85" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="72">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>97</v>
@@ -3196,16 +3094,16 @@
         <v>99</v>
       </c>
       <c r="E86" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F86" s="73"/>
       <c r="G86" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="72">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>112</v>
@@ -3217,16 +3115,16 @@
         <v>99</v>
       </c>
       <c r="E87" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F87" s="73"/>
       <c r="G87" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="72">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>112</v>
@@ -3238,16 +3136,16 @@
         <v>99</v>
       </c>
       <c r="E88" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F88" s="73"/>
       <c r="G88" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="72">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>112</v>
@@ -3259,16 +3157,16 @@
         <v>99</v>
       </c>
       <c r="E89" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F89" s="73"/>
       <c r="G89" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="72">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>112</v>
@@ -3280,16 +3178,16 @@
         <v>99</v>
       </c>
       <c r="E90" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F90" s="73"/>
       <c r="G90" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="72">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>112</v>
@@ -3301,16 +3199,16 @@
         <v>99</v>
       </c>
       <c r="E91" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F91" s="73"/>
       <c r="G91" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="72">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>112</v>
@@ -3322,16 +3220,16 @@
         <v>99</v>
       </c>
       <c r="E92" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F92" s="73"/>
       <c r="G92" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="72">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>112</v>
@@ -3343,16 +3241,16 @@
         <v>99</v>
       </c>
       <c r="E93" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F93" s="73"/>
       <c r="G93" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="72">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B94" s="17" t="s">
         <v>112</v>
@@ -3364,16 +3262,16 @@
         <v>99</v>
       </c>
       <c r="E94" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F94" s="73"/>
       <c r="G94" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="72">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B95" s="17" t="s">
         <v>112</v>
@@ -3385,16 +3283,16 @@
         <v>99</v>
       </c>
       <c r="E95" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F95" s="73"/>
       <c r="G95" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="72">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B96" s="17" t="s">
         <v>112</v>
@@ -3406,16 +3304,16 @@
         <v>99</v>
       </c>
       <c r="E96" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F96" s="73"/>
       <c r="G96" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="72">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>112</v>
@@ -3427,16 +3325,16 @@
         <v>99</v>
       </c>
       <c r="E97" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F97" s="73"/>
       <c r="G97" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="72">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B98" s="17" t="s">
         <v>112</v>
@@ -3448,7 +3346,7 @@
         <v>99</v>
       </c>
       <c r="E98" s="21">
-        <v>-35.2</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="F98" s="73"/>
       <c r="G98" s="17" t="s">
@@ -3456,19 +3354,19 @@
       </c>
       <c r="H98" s="21">
         <f>SUM(E75:F98)</f>
-        <v>-844.8</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>-844.8000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="60"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
       <c r="E99" s="61"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="74">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B100" s="25" t="s">
         <v>84</v>
@@ -3487,9 +3385,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="74">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B101" s="25" t="s">
         <v>84</v>
@@ -3508,9 +3406,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="74">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B102" s="25" t="s">
         <v>84</v>
@@ -3529,9 +3427,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="74">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B103" s="25" t="s">
         <v>84</v>
@@ -3550,9 +3448,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="74">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B104" s="25" t="s">
         <v>84</v>
@@ -3571,9 +3469,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="74">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B105" s="25" t="s">
         <v>84</v>
@@ -3592,9 +3490,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="74">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B106" s="25" t="s">
         <v>84</v>
@@ -3613,9 +3511,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="74">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B107" s="25" t="s">
         <v>84</v>
@@ -3634,9 +3532,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="74">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B108" s="25" t="s">
         <v>84</v>
@@ -3655,9 +3553,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="74">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B109" s="25" t="s">
         <v>84</v>
@@ -3676,9 +3574,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="74">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B110" s="25" t="s">
         <v>84</v>
@@ -3697,9 +3595,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="74">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B111" s="25" t="s">
         <v>84</v>
@@ -3719,19 +3617,19 @@
       </c>
       <c r="H111" s="30">
         <f>SUM(E100:F111)</f>
-        <v>-1831.2</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>-1831.1999999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="60"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="E112" s="61"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="76">
-        <v>44240.0</v>
+        <v>44240</v>
       </c>
       <c r="B113" s="77" t="s">
         <v>127</v>
@@ -3750,9 +3648,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="76">
-        <v>44308.0</v>
+        <v>44308</v>
       </c>
       <c r="B114" s="77" t="s">
         <v>127</v>
@@ -3771,9 +3669,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="76">
-        <v>44384.0</v>
+        <v>44384</v>
       </c>
       <c r="B115" s="77" t="s">
         <v>127</v>
@@ -3792,9 +3690,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="76">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="B116" s="77" t="s">
         <v>127</v>
@@ -3813,9 +3711,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="76">
-        <v>44240.0</v>
+        <v>44240</v>
       </c>
       <c r="B117" s="77" t="s">
         <v>127</v>
@@ -3834,9 +3732,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="76">
-        <v>44308.0</v>
+        <v>44308</v>
       </c>
       <c r="B118" s="77" t="s">
         <v>127</v>
@@ -3855,9 +3753,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="76">
-        <v>44384.0</v>
+        <v>44384</v>
       </c>
       <c r="B119" s="77" t="s">
         <v>127</v>
@@ -3876,9 +3774,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="76">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="B120" s="77" t="s">
         <v>127</v>
@@ -3898,19 +3796,19 @@
       </c>
       <c r="H120" s="78">
         <f>SUM(E113:F120)</f>
-        <v>-891.6</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>-891.59999999999991</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="60"/>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
       <c r="E121" s="61"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="38">
-        <v>44402.0</v>
+        <v>44402</v>
       </c>
       <c r="B122" s="39" t="s">
         <v>132</v>
@@ -3922,7 +3820,7 @@
         <v>134</v>
       </c>
       <c r="E122" s="40">
-        <v>-423.0</v>
+        <v>-423</v>
       </c>
       <c r="F122" s="80"/>
       <c r="G122" s="39" t="s">
@@ -3933,7 +3831,7 @@
         <v>-423</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="60"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -3941,9 +3839,9 @@
       <c r="E123" s="61"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="81">
-        <v>44215.0</v>
+        <v>44215</v>
       </c>
       <c r="B124" s="47" t="s">
         <v>136</v>
@@ -3962,9 +3860,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="81">
-        <v>44216.0</v>
+        <v>44216</v>
       </c>
       <c r="B125" s="47" t="s">
         <v>136</v>
@@ -3983,9 +3881,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="81">
-        <v>44217.0</v>
+        <v>44217</v>
       </c>
       <c r="B126" s="47" t="s">
         <v>136</v>
@@ -4004,9 +3902,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="81">
-        <v>44218.0</v>
+        <v>44218</v>
       </c>
       <c r="B127" s="47" t="s">
         <v>136</v>
@@ -4025,9 +3923,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="81">
-        <v>44219.0</v>
+        <v>44219</v>
       </c>
       <c r="B128" s="47" t="s">
         <v>136</v>
@@ -4046,9 +3944,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="81">
-        <v>44220.0</v>
+        <v>44220</v>
       </c>
       <c r="B129" s="47" t="s">
         <v>136</v>
@@ -4067,9 +3965,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="81">
-        <v>44221.0</v>
+        <v>44221</v>
       </c>
       <c r="B130" s="47" t="s">
         <v>136</v>
@@ -4088,9 +3986,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="81">
-        <v>44222.0</v>
+        <v>44222</v>
       </c>
       <c r="B131" s="47" t="s">
         <v>136</v>
@@ -4102,16 +4000,16 @@
         <v>138</v>
       </c>
       <c r="E131" s="48">
-        <v>-8.88</v>
+        <v>-8.8800000000000008</v>
       </c>
       <c r="F131" s="82"/>
       <c r="G131" s="47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="81">
-        <v>44223.0</v>
+        <v>44223</v>
       </c>
       <c r="B132" s="47" t="s">
         <v>136</v>
@@ -4130,9 +4028,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="81">
-        <v>44427.0</v>
+        <v>44427</v>
       </c>
       <c r="B133" s="47" t="s">
         <v>136</v>
@@ -4151,9 +4049,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="81">
-        <v>44428.0</v>
+        <v>44428</v>
       </c>
       <c r="B134" s="47" t="s">
         <v>136</v>
@@ -4172,9 +4070,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="81">
-        <v>44429.0</v>
+        <v>44429</v>
       </c>
       <c r="B135" s="47" t="s">
         <v>136</v>
@@ -4193,9 +4091,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="81">
-        <v>44430.0</v>
+        <v>44430</v>
       </c>
       <c r="B136" s="47" t="s">
         <v>136</v>
@@ -4214,9 +4112,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="81">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B137" s="47" t="s">
         <v>136</v>
@@ -4235,9 +4133,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="81">
-        <v>44432.0</v>
+        <v>44432</v>
       </c>
       <c r="B138" s="47" t="s">
         <v>136</v>
@@ -4256,9 +4154,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="81">
-        <v>44433.0</v>
+        <v>44433</v>
       </c>
       <c r="B139" s="47" t="s">
         <v>136</v>
@@ -4277,9 +4175,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="81">
-        <v>44434.0</v>
+        <v>44434</v>
       </c>
       <c r="B140" s="47" t="s">
         <v>136</v>
@@ -4291,16 +4189,16 @@
         <v>138</v>
       </c>
       <c r="E140" s="48">
-        <v>-8.88</v>
+        <v>-8.8800000000000008</v>
       </c>
       <c r="F140" s="82"/>
       <c r="G140" s="47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="81">
-        <v>44435.0</v>
+        <v>44435</v>
       </c>
       <c r="B141" s="47" t="s">
         <v>136</v>
@@ -4320,10 +4218,10 @@
       </c>
       <c r="H141" s="48">
         <f>SUM(E124:F141)</f>
-        <v>-121.8</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>-121.80000000000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="55"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -4331,9 +4229,9 @@
       <c r="E142" s="61"/>
       <c r="G142" s="12"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="54">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B143" s="50" t="s">
         <v>52</v>
@@ -4352,9 +4250,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="54">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B144" s="50" t="s">
         <v>52</v>
@@ -4373,9 +4271,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="54">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B145" s="50" t="s">
         <v>52</v>
@@ -4394,9 +4292,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="54">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B146" s="50" t="s">
         <v>52</v>
@@ -4415,9 +4313,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="54">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B147" s="50" t="s">
         <v>52</v>
@@ -4436,9 +4334,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="54">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B148" s="50" t="s">
         <v>52</v>
@@ -4457,9 +4355,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="54">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B149" s="50" t="s">
         <v>52</v>
@@ -4478,9 +4376,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="54">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B150" s="50" t="s">
         <v>52</v>
@@ -4499,9 +4397,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="54">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B151" s="50" t="s">
         <v>52</v>
@@ -4520,9 +4418,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="54">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B152" s="50" t="s">
         <v>52</v>
@@ -4541,9 +4439,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="54">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B153" s="50" t="s">
         <v>52</v>
@@ -4562,9 +4460,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="54">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B154" s="50" t="s">
         <v>52</v>
@@ -4583,9 +4481,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="54">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B155" s="50" t="s">
         <v>145</v>
@@ -4604,9 +4502,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="54">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B156" s="50" t="s">
         <v>145</v>
@@ -4625,9 +4523,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="54">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B157" s="50" t="s">
         <v>145</v>
@@ -4646,9 +4544,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="54">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B158" s="50" t="s">
         <v>145</v>
@@ -4667,9 +4565,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="54">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B159" s="50" t="s">
         <v>145</v>
@@ -4688,9 +4586,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="54">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B160" s="50" t="s">
         <v>145</v>
@@ -4709,9 +4607,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="54">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B161" s="50" t="s">
         <v>145</v>
@@ -4730,9 +4628,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="54">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B162" s="50" t="s">
         <v>145</v>
@@ -4751,9 +4649,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="54">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B163" s="50" t="s">
         <v>145</v>
@@ -4772,9 +4670,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="54">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B164" s="50" t="s">
         <v>145</v>
@@ -4793,9 +4691,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="54">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B165" s="50" t="s">
         <v>145</v>
@@ -4814,9 +4712,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="54">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B166" s="50" t="s">
         <v>145</v>
@@ -4835,9 +4733,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="54">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B167" s="50" t="s">
         <v>145</v>
@@ -4856,9 +4754,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="54">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B168" s="50" t="s">
         <v>145</v>
@@ -4877,9 +4775,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="54">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B169" s="50" t="s">
         <v>145</v>
@@ -4898,9 +4796,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="54">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B170" s="50" t="s">
         <v>145</v>
@@ -4919,9 +4817,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="54">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B171" s="50" t="s">
         <v>145</v>
@@ -4940,9 +4838,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="54">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B172" s="50" t="s">
         <v>145</v>
@@ -4961,9 +4859,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="54">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B173" s="50" t="s">
         <v>145</v>
@@ -4982,9 +4880,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="54">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B174" s="50" t="s">
         <v>145</v>
@@ -5003,9 +4901,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="54">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B175" s="50" t="s">
         <v>145</v>
@@ -5024,9 +4922,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="54">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B176" s="50" t="s">
         <v>145</v>
@@ -5045,9 +4943,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="54">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B177" s="50" t="s">
         <v>145</v>
@@ -5066,9 +4964,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="54">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B178" s="50" t="s">
         <v>145</v>
@@ -5091,12 +4989,12 @@
         <v>-1184.76</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E179" s="31"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="83">
-        <v>44561.0</v>
+        <v>44561</v>
       </c>
       <c r="B180" s="84" t="s">
         <v>172</v>
@@ -5108,16 +5006,16 @@
         <v>174</v>
       </c>
       <c r="E180" s="58">
-        <v>-88.0</v>
+        <v>-88</v>
       </c>
       <c r="F180" s="59"/>
       <c r="G180" s="57" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="83">
-        <v>44561.0</v>
+        <v>44561</v>
       </c>
       <c r="B181" s="84" t="s">
         <v>176</v>
@@ -5137,15 +5035,15 @@
       </c>
       <c r="H181" s="58">
         <f>SUM(E180:F181)</f>
-        <v>-153.3</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>-153.30000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E182" s="31"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="85">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B183" s="63" t="s">
         <v>179</v>
@@ -5164,9 +5062,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="85">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B184" s="63" t="s">
         <v>179</v>
@@ -5185,9 +5083,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="85">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B185" s="63" t="s">
         <v>179</v>
@@ -5206,9 +5104,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="85">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B186" s="63" t="s">
         <v>179</v>
@@ -5227,9 +5125,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="85">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B187" s="63" t="s">
         <v>179</v>
@@ -5248,9 +5146,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="85">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B188" s="63" t="s">
         <v>179</v>
@@ -5269,9 +5167,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="85">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B189" s="63" t="s">
         <v>179</v>
@@ -5290,9 +5188,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="85">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B190" s="63" t="s">
         <v>179</v>
@@ -5311,9 +5209,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="85">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B191" s="63" t="s">
         <v>179</v>
@@ -5332,9 +5230,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="85">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B192" s="63" t="s">
         <v>179</v>
@@ -5353,9 +5251,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="85">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B193" s="63" t="s">
         <v>179</v>
@@ -5374,9 +5272,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="85">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B194" s="63" t="s">
         <v>179</v>
@@ -5395,9 +5293,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="85">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B195" s="63" t="s">
         <v>194</v>
@@ -5416,9 +5314,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="85">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B196" s="63" t="s">
         <v>194</v>
@@ -5437,9 +5335,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="85">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B197" s="63" t="s">
         <v>194</v>
@@ -5458,9 +5356,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="85">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B198" s="63" t="s">
         <v>194</v>
@@ -5479,9 +5377,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="85">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B199" s="63" t="s">
         <v>194</v>
@@ -5500,9 +5398,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="85">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B200" s="63" t="s">
         <v>194</v>
@@ -5521,9 +5419,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="85">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B201" s="63" t="s">
         <v>194</v>
@@ -5542,9 +5440,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="85">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B202" s="63" t="s">
         <v>194</v>
@@ -5563,9 +5461,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="85">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B203" s="63" t="s">
         <v>194</v>
@@ -5584,9 +5482,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="85">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B204" s="63" t="s">
         <v>194</v>
@@ -5605,9 +5503,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="85">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B205" s="63" t="s">
         <v>194</v>
@@ -5626,9 +5524,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="85">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B206" s="63" t="s">
         <v>194</v>
@@ -5648,15 +5546,15 @@
       </c>
       <c r="H206" s="64">
         <f>SUM(E183:F206)</f>
-        <v>-33488.76</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>-33488.760000000009</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E207" s="31"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="66">
-        <v>44561.0</v>
+        <v>44561</v>
       </c>
       <c r="B208" s="67" t="s">
         <v>179</v>
@@ -5668,16 +5566,16 @@
         <v>196</v>
       </c>
       <c r="E208" s="68">
-        <v>-785.0</v>
+        <v>-785</v>
       </c>
       <c r="F208" s="69"/>
       <c r="G208" s="67" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="66">
-        <v>44561.0</v>
+        <v>44561</v>
       </c>
       <c r="B209" s="67" t="s">
         <v>194</v>
@@ -5689,7 +5587,7 @@
         <v>196</v>
       </c>
       <c r="E209" s="68">
-        <v>-785.0</v>
+        <v>-785</v>
       </c>
       <c r="F209" s="69"/>
       <c r="G209" s="67" t="s">
@@ -5700,12 +5598,12 @@
         <v>-1570</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E210" s="31"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="86">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B211" s="8" t="s">
         <v>198</v>
@@ -5717,16 +5615,16 @@
         <v>200</v>
       </c>
       <c r="E211" s="10">
-        <v>-4.98</v>
+        <v>-4.9800000000000004</v>
       </c>
       <c r="F211" s="71"/>
       <c r="G211" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="86">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>198</v>
@@ -5745,9 +5643,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="70">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>203</v>
@@ -5770,12 +5668,12 @@
         <v>-16.32</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E214" s="31"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="87">
-        <v>44213.0</v>
+        <v>44213</v>
       </c>
       <c r="B215" s="17" t="s">
         <v>39</v>
@@ -5794,9 +5692,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="87">
-        <v>44213.0</v>
+        <v>44213</v>
       </c>
       <c r="B216" s="17" t="s">
         <v>39</v>
@@ -5815,9 +5713,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="88">
-        <v>44373.0</v>
+        <v>44373</v>
       </c>
       <c r="B217" s="17" t="s">
         <v>39</v>
@@ -5836,9 +5734,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="88">
-        <v>44373.0</v>
+        <v>44373</v>
       </c>
       <c r="B218" s="17" t="s">
         <v>39</v>
@@ -5857,9 +5755,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="88">
-        <v>44373.0</v>
+        <v>44373</v>
       </c>
       <c r="B219" s="17" t="s">
         <v>39</v>
@@ -5878,9 +5776,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="89">
-        <v>44373.0</v>
+        <v>44373</v>
       </c>
       <c r="B220" s="90" t="s">
         <v>39</v>
@@ -5899,9 +5797,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="89">
-        <v>44373.0</v>
+        <v>44373</v>
       </c>
       <c r="B221" s="92" t="s">
         <v>39</v>
@@ -5921,10 +5819,10 @@
       </c>
       <c r="H221" s="19">
         <f>SUM(E215:F221)</f>
-        <v>-33.8</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>-33.800000000000004</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="93"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -5932,9 +5830,9 @@
       <c r="E222" s="61"/>
       <c r="G222" s="12"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="94">
-        <v>44213.0</v>
+        <v>44213</v>
       </c>
       <c r="B223" s="25" t="s">
         <v>84</v>
@@ -5953,9 +5851,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="95">
-        <v>44373.0</v>
+        <v>44373</v>
       </c>
       <c r="B224" s="25" t="s">
         <v>84</v>
@@ -5975,10 +5873,10 @@
       </c>
       <c r="H224" s="30">
         <f>SUM(E223:F224)</f>
-        <v>-2608.7</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>-2608.6999999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="93"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -5986,9 +5884,9 @@
       <c r="E225" s="61"/>
       <c r="G225" s="12"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="96">
-        <v>44561.0</v>
+        <v>44561</v>
       </c>
       <c r="B226" s="77" t="s">
         <v>8</v>
@@ -6000,7 +5898,7 @@
         <v>212</v>
       </c>
       <c r="E226" s="78">
-        <v>-9856.3</v>
+        <v>-9856.2999999999993</v>
       </c>
       <c r="F226" s="79"/>
       <c r="G226" s="77" t="s">
@@ -6008,10 +5906,10 @@
       </c>
       <c r="H226" s="78">
         <f>SUM(E226:F226)</f>
-        <v>-9856.3</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>-9856.2999999999993</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="93"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -6019,9 +5917,9 @@
       <c r="E227" s="61"/>
       <c r="G227" s="12"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="97">
-        <v>44454.0</v>
+        <v>44454</v>
       </c>
       <c r="B228" s="98" t="s">
         <v>79</v>
@@ -6033,7 +5931,7 @@
         <v>215</v>
       </c>
       <c r="E228" s="41">
-        <v>-210.0</v>
+        <v>-210</v>
       </c>
       <c r="F228" s="80"/>
       <c r="G228" s="39" t="s">
@@ -6044,7 +5942,7 @@
         <v>-210</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="93"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -6052,9 +5950,9 @@
       <c r="E229" s="61"/>
       <c r="G229" s="12"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="42">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="B230" s="43" t="s">
         <v>217</v>
@@ -6066,7 +5964,7 @@
         <v>219</v>
       </c>
       <c r="E230" s="46">
-        <v>-9000.0</v>
+        <v>-9000</v>
       </c>
       <c r="F230" s="82"/>
       <c r="G230" s="47" t="s">
@@ -6077,7 +5975,7 @@
         <v>-9000</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="93"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -6085,9 +5983,9 @@
       <c r="E231" s="61"/>
       <c r="G231" s="12"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="102">
-        <v>44301.0</v>
+        <v>44301</v>
       </c>
       <c r="B232" s="103" t="s">
         <v>221</v>
@@ -6106,9 +6004,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="102">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="B233" s="103" t="s">
         <v>221</v>
@@ -6120,7 +6018,7 @@
         <v>223</v>
       </c>
       <c r="E233" s="105">
-        <v>-541.0</v>
+        <v>-541</v>
       </c>
       <c r="F233" s="52"/>
       <c r="G233" s="50" t="s">
@@ -6131,7 +6029,7 @@
         <v>-901.1</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="93"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -6139,9 +6037,9 @@
       <c r="E234" s="61"/>
       <c r="G234" s="12"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="83">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B235" s="57" t="s">
         <v>20</v>
@@ -6153,16 +6051,16 @@
         <v>227</v>
       </c>
       <c r="E235" s="58">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="F235" s="59"/>
       <c r="G235" s="57" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="83">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B236" s="57" t="s">
         <v>20</v>
@@ -6174,16 +6072,16 @@
         <v>227</v>
       </c>
       <c r="E236" s="58">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="F236" s="59"/>
       <c r="G236" s="57" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="83">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B237" s="57" t="s">
         <v>20</v>
@@ -6195,16 +6093,16 @@
         <v>227</v>
       </c>
       <c r="E237" s="58">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="F237" s="59"/>
       <c r="G237" s="57" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="83">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B238" s="57" t="s">
         <v>20</v>
@@ -6216,16 +6114,16 @@
         <v>227</v>
       </c>
       <c r="E238" s="58">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="F238" s="59"/>
       <c r="G238" s="57" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="83">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B239" s="57" t="s">
         <v>20</v>
@@ -6237,16 +6135,16 @@
         <v>227</v>
       </c>
       <c r="E239" s="58">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="F239" s="59"/>
       <c r="G239" s="57" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="83">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B240" s="57" t="s">
         <v>20</v>
@@ -6258,16 +6156,16 @@
         <v>227</v>
       </c>
       <c r="E240" s="58">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="F240" s="59"/>
       <c r="G240" s="57" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="83">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B241" s="57" t="s">
         <v>20</v>
@@ -6279,16 +6177,16 @@
         <v>227</v>
       </c>
       <c r="E241" s="58">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="F241" s="59"/>
       <c r="G241" s="57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="83">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B242" s="57" t="s">
         <v>20</v>
@@ -6300,16 +6198,16 @@
         <v>227</v>
       </c>
       <c r="E242" s="58">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="F242" s="59"/>
       <c r="G242" s="57" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="83">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B243" s="57" t="s">
         <v>20</v>
@@ -6321,16 +6219,16 @@
         <v>227</v>
       </c>
       <c r="E243" s="58">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="F243" s="59"/>
       <c r="G243" s="57" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="83">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B244" s="57" t="s">
         <v>20</v>
@@ -6342,16 +6240,16 @@
         <v>227</v>
       </c>
       <c r="E244" s="58">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="F244" s="59"/>
       <c r="G244" s="57" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="83">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B245" s="57" t="s">
         <v>20</v>
@@ -6363,16 +6261,16 @@
         <v>227</v>
       </c>
       <c r="E245" s="58">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="F245" s="59"/>
       <c r="G245" s="57" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="83">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B246" s="57" t="s">
         <v>20</v>
@@ -6384,16 +6282,16 @@
         <v>227</v>
       </c>
       <c r="E246" s="58">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="F246" s="59"/>
       <c r="G246" s="57" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="83">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B247" s="57" t="s">
         <v>240</v>
@@ -6405,16 +6303,16 @@
         <v>241</v>
       </c>
       <c r="E247" s="58">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="F247" s="59"/>
       <c r="G247" s="57" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="83">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B248" s="57" t="s">
         <v>240</v>
@@ -6426,16 +6324,16 @@
         <v>241</v>
       </c>
       <c r="E248" s="58">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="F248" s="59"/>
       <c r="G248" s="57" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="83">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B249" s="57" t="s">
         <v>240</v>
@@ -6447,16 +6345,16 @@
         <v>241</v>
       </c>
       <c r="E249" s="58">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="F249" s="59"/>
       <c r="G249" s="57" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="83">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B250" s="57" t="s">
         <v>240</v>
@@ -6468,16 +6366,16 @@
         <v>241</v>
       </c>
       <c r="E250" s="58">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="F250" s="59"/>
       <c r="G250" s="57" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="83">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B251" s="57" t="s">
         <v>240</v>
@@ -6489,16 +6387,16 @@
         <v>241</v>
       </c>
       <c r="E251" s="58">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="F251" s="59"/>
       <c r="G251" s="57" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="83">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B252" s="57" t="s">
         <v>240</v>
@@ -6510,16 +6408,16 @@
         <v>241</v>
       </c>
       <c r="E252" s="58">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="F252" s="59"/>
       <c r="G252" s="57" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="83">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B253" s="57" t="s">
         <v>240</v>
@@ -6531,16 +6429,16 @@
         <v>241</v>
       </c>
       <c r="E253" s="58">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="F253" s="59"/>
       <c r="G253" s="57" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="83">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B254" s="57" t="s">
         <v>240</v>
@@ -6552,16 +6450,16 @@
         <v>241</v>
       </c>
       <c r="E254" s="58">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="F254" s="59"/>
       <c r="G254" s="57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="83">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B255" s="57" t="s">
         <v>240</v>
@@ -6573,16 +6471,16 @@
         <v>241</v>
       </c>
       <c r="E255" s="58">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="F255" s="59"/>
       <c r="G255" s="57" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="83">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B256" s="57" t="s">
         <v>240</v>
@@ -6594,16 +6492,16 @@
         <v>241</v>
       </c>
       <c r="E256" s="58">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="F256" s="59"/>
       <c r="G256" s="57" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="83">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B257" s="57" t="s">
         <v>240</v>
@@ -6615,16 +6513,16 @@
         <v>241</v>
       </c>
       <c r="E257" s="58">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="F257" s="59"/>
       <c r="G257" s="57" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="83">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B258" s="57" t="s">
         <v>240</v>
@@ -6636,16 +6534,16 @@
         <v>241</v>
       </c>
       <c r="E258" s="58">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="F258" s="59"/>
       <c r="G258" s="57" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="83">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B259" s="57" t="s">
         <v>254</v>
@@ -6657,16 +6555,16 @@
         <v>255</v>
       </c>
       <c r="E259" s="58">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="F259" s="59"/>
       <c r="G259" s="57" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="83">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B260" s="57" t="s">
         <v>254</v>
@@ -6678,16 +6576,16 @@
         <v>255</v>
       </c>
       <c r="E260" s="58">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="F260" s="59"/>
       <c r="G260" s="57" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="83">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B261" s="57" t="s">
         <v>254</v>
@@ -6699,16 +6597,16 @@
         <v>255</v>
       </c>
       <c r="E261" s="58">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="F261" s="59"/>
       <c r="G261" s="57" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="83">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B262" s="57" t="s">
         <v>254</v>
@@ -6720,16 +6618,16 @@
         <v>255</v>
       </c>
       <c r="E262" s="58">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="F262" s="59"/>
       <c r="G262" s="57" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="83">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B263" s="57" t="s">
         <v>254</v>
@@ -6741,16 +6639,16 @@
         <v>255</v>
       </c>
       <c r="E263" s="58">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="F263" s="59"/>
       <c r="G263" s="57" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="83">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B264" s="57" t="s">
         <v>254</v>
@@ -6762,16 +6660,16 @@
         <v>255</v>
       </c>
       <c r="E264" s="58">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="F264" s="59"/>
       <c r="G264" s="57" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="83">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B265" s="57" t="s">
         <v>254</v>
@@ -6783,16 +6681,16 @@
         <v>255</v>
       </c>
       <c r="E265" s="58">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="F265" s="59"/>
       <c r="G265" s="57" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="83">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B266" s="57" t="s">
         <v>254</v>
@@ -6804,16 +6702,16 @@
         <v>255</v>
       </c>
       <c r="E266" s="58">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="F266" s="59"/>
       <c r="G266" s="57" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="83">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B267" s="57" t="s">
         <v>254</v>
@@ -6825,16 +6723,16 @@
         <v>255</v>
       </c>
       <c r="E267" s="58">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="F267" s="59"/>
       <c r="G267" s="57" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="83">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B268" s="57" t="s">
         <v>254</v>
@@ -6846,16 +6744,16 @@
         <v>255</v>
       </c>
       <c r="E268" s="58">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="F268" s="59"/>
       <c r="G268" s="57" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="83">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B269" s="57" t="s">
         <v>254</v>
@@ -6867,16 +6765,16 @@
         <v>255</v>
       </c>
       <c r="E269" s="58">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="F269" s="59"/>
       <c r="G269" s="57" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="83">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B270" s="57" t="s">
         <v>254</v>
@@ -6888,16 +6786,16 @@
         <v>255</v>
       </c>
       <c r="E270" s="58">
-        <v>-4.0</v>
+        <v>-4</v>
       </c>
       <c r="F270" s="59"/>
       <c r="G270" s="57" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="83">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B271" s="57" t="s">
         <v>268</v>
@@ -6916,9 +6814,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="83">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B272" s="57" t="s">
         <v>268</v>
@@ -6937,9 +6835,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="83">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B273" s="57" t="s">
         <v>268</v>
@@ -6958,9 +6856,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="83">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B274" s="57" t="s">
         <v>268</v>
@@ -6979,9 +6877,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="83">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B275" s="57" t="s">
         <v>268</v>
@@ -7000,9 +6898,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="83">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B276" s="57" t="s">
         <v>268</v>
@@ -7021,9 +6919,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="83">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B277" s="57" t="s">
         <v>268</v>
@@ -7042,9 +6940,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="83">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B278" s="57" t="s">
         <v>268</v>
@@ -7056,16 +6954,16 @@
         <v>269</v>
       </c>
       <c r="E278" s="58">
-        <v>-8.88</v>
+        <v>-8.8800000000000008</v>
       </c>
       <c r="F278" s="59"/>
       <c r="G278" s="57" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="83">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B279" s="57" t="s">
         <v>268</v>
@@ -7084,9 +6982,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="83">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B280" s="57" t="s">
         <v>268</v>
@@ -7105,9 +7003,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="83">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B281" s="57" t="s">
         <v>268</v>
@@ -7126,9 +7024,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="83">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B282" s="57" t="s">
         <v>268</v>
@@ -7147,9 +7045,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="83">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B283" s="57" t="s">
         <v>282</v>
@@ -7168,9 +7066,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="83">
-        <v>44244.0</v>
+        <v>44244</v>
       </c>
       <c r="B284" s="57" t="s">
         <v>282</v>
@@ -7189,9 +7087,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="83">
-        <v>44273.0</v>
+        <v>44273</v>
       </c>
       <c r="B285" s="57" t="s">
         <v>282</v>
@@ -7210,9 +7108,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="83">
-        <v>44305.0</v>
+        <v>44305</v>
       </c>
       <c r="B286" s="57" t="s">
         <v>282</v>
@@ -7231,9 +7129,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="83">
-        <v>44336.0</v>
+        <v>44336</v>
       </c>
       <c r="B287" s="57" t="s">
         <v>282</v>
@@ -7252,9 +7150,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="83">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B288" s="57" t="s">
         <v>282</v>
@@ -7273,9 +7171,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" s="83">
-        <v>44399.0</v>
+        <v>44399</v>
       </c>
       <c r="B289" s="57" t="s">
         <v>282</v>
@@ -7294,9 +7192,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="83">
-        <v>44431.0</v>
+        <v>44431</v>
       </c>
       <c r="B290" s="57" t="s">
         <v>282</v>
@@ -7315,9 +7213,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" s="83">
-        <v>44463.0</v>
+        <v>44463</v>
       </c>
       <c r="B291" s="57" t="s">
         <v>282</v>
@@ -7336,9 +7234,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="83">
-        <v>44494.0</v>
+        <v>44494</v>
       </c>
       <c r="B292" s="57" t="s">
         <v>282</v>
@@ -7357,9 +7255,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="83">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="B293" s="57" t="s">
         <v>282</v>
@@ -7378,9 +7276,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" s="83">
-        <v>44557.0</v>
+        <v>44557</v>
       </c>
       <c r="B294" s="57" t="s">
         <v>282</v>
@@ -7400,2737 +7298,2737 @@
       </c>
       <c r="H294" s="58">
         <f>SUM(E235:F294)</f>
-        <v>-199.2</v>
-      </c>
-    </row>
-    <row r="295">
+        <v>-199.19999999999985</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E295" s="31"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E296" s="31"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E297" s="31"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E298" s="31"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E299" s="31"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E300" s="31"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E301" s="31"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E302" s="31"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E303" s="31"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E304" s="31"/>
     </row>
-    <row r="305">
+    <row r="305" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E305" s="31"/>
     </row>
-    <row r="306">
+    <row r="306" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E306" s="31"/>
     </row>
-    <row r="307">
+    <row r="307" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E307" s="31"/>
     </row>
-    <row r="308">
+    <row r="308" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E308" s="31"/>
     </row>
-    <row r="309">
+    <row r="309" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E309" s="31"/>
     </row>
-    <row r="310">
+    <row r="310" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E310" s="31"/>
     </row>
-    <row r="311">
+    <row r="311" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E311" s="31"/>
     </row>
-    <row r="312">
+    <row r="312" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E312" s="31"/>
     </row>
-    <row r="313">
+    <row r="313" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E313" s="31"/>
     </row>
-    <row r="314">
+    <row r="314" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E314" s="31"/>
     </row>
-    <row r="315">
+    <row r="315" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E315" s="31"/>
     </row>
-    <row r="316">
+    <row r="316" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E316" s="31"/>
     </row>
-    <row r="317">
+    <row r="317" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E317" s="31"/>
     </row>
-    <row r="318">
+    <row r="318" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E318" s="31"/>
     </row>
-    <row r="319">
+    <row r="319" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E319" s="31"/>
     </row>
-    <row r="320">
+    <row r="320" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E320" s="31"/>
     </row>
-    <row r="321">
+    <row r="321" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E321" s="31"/>
     </row>
-    <row r="322">
+    <row r="322" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E322" s="31"/>
     </row>
-    <row r="323">
+    <row r="323" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E323" s="31"/>
     </row>
-    <row r="324">
+    <row r="324" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E324" s="31"/>
     </row>
-    <row r="325">
+    <row r="325" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E325" s="31"/>
     </row>
-    <row r="326">
+    <row r="326" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E326" s="31"/>
     </row>
-    <row r="327">
+    <row r="327" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E327" s="31"/>
     </row>
-    <row r="328">
+    <row r="328" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E328" s="31"/>
     </row>
-    <row r="329">
+    <row r="329" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E329" s="31"/>
     </row>
-    <row r="330">
+    <row r="330" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E330" s="31"/>
     </row>
-    <row r="331">
+    <row r="331" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E331" s="31"/>
     </row>
-    <row r="332">
+    <row r="332" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E332" s="31"/>
     </row>
-    <row r="333">
+    <row r="333" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E333" s="31"/>
     </row>
-    <row r="334">
+    <row r="334" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E334" s="31"/>
     </row>
-    <row r="335">
+    <row r="335" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E335" s="31"/>
     </row>
-    <row r="336">
+    <row r="336" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E336" s="31"/>
     </row>
-    <row r="337">
+    <row r="337" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E337" s="31"/>
     </row>
-    <row r="338">
+    <row r="338" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E338" s="31"/>
     </row>
-    <row r="339">
+    <row r="339" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E339" s="31"/>
     </row>
-    <row r="340">
+    <row r="340" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E340" s="31"/>
     </row>
-    <row r="341">
+    <row r="341" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E341" s="31"/>
     </row>
-    <row r="342">
+    <row r="342" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E342" s="31"/>
     </row>
-    <row r="343">
+    <row r="343" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E343" s="31"/>
     </row>
-    <row r="344">
+    <row r="344" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E344" s="31"/>
     </row>
-    <row r="345">
+    <row r="345" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E345" s="31"/>
     </row>
-    <row r="346">
+    <row r="346" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E346" s="31"/>
     </row>
-    <row r="347">
+    <row r="347" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E347" s="31"/>
     </row>
-    <row r="348">
+    <row r="348" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E348" s="31"/>
     </row>
-    <row r="349">
+    <row r="349" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E349" s="31"/>
     </row>
-    <row r="350">
+    <row r="350" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E350" s="31"/>
     </row>
-    <row r="351">
+    <row r="351" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E351" s="31"/>
     </row>
-    <row r="352">
+    <row r="352" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E352" s="31"/>
     </row>
-    <row r="353">
+    <row r="353" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E353" s="31"/>
     </row>
-    <row r="354">
+    <row r="354" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E354" s="31"/>
     </row>
-    <row r="355">
+    <row r="355" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E355" s="31"/>
     </row>
-    <row r="356">
+    <row r="356" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E356" s="31"/>
     </row>
-    <row r="357">
+    <row r="357" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E357" s="31"/>
     </row>
-    <row r="358">
+    <row r="358" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E358" s="31"/>
     </row>
-    <row r="359">
+    <row r="359" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E359" s="31"/>
     </row>
-    <row r="360">
+    <row r="360" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E360" s="31"/>
     </row>
-    <row r="361">
+    <row r="361" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E361" s="31"/>
     </row>
-    <row r="362">
+    <row r="362" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E362" s="31"/>
     </row>
-    <row r="363">
+    <row r="363" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E363" s="31"/>
     </row>
-    <row r="364">
+    <row r="364" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E364" s="31"/>
     </row>
-    <row r="365">
+    <row r="365" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E365" s="31"/>
     </row>
-    <row r="366">
+    <row r="366" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E366" s="31"/>
     </row>
-    <row r="367">
+    <row r="367" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E367" s="31"/>
     </row>
-    <row r="368">
+    <row r="368" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E368" s="31"/>
     </row>
-    <row r="369">
+    <row r="369" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E369" s="31"/>
     </row>
-    <row r="370">
+    <row r="370" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E370" s="31"/>
     </row>
-    <row r="371">
+    <row r="371" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E371" s="31"/>
     </row>
-    <row r="372">
+    <row r="372" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E372" s="31"/>
     </row>
-    <row r="373">
+    <row r="373" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E373" s="31"/>
     </row>
-    <row r="374">
+    <row r="374" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E374" s="31"/>
     </row>
-    <row r="375">
+    <row r="375" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E375" s="31"/>
     </row>
-    <row r="376">
+    <row r="376" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E376" s="31"/>
     </row>
-    <row r="377">
+    <row r="377" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E377" s="31"/>
     </row>
-    <row r="378">
+    <row r="378" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E378" s="31"/>
     </row>
-    <row r="379">
+    <row r="379" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E379" s="31"/>
     </row>
-    <row r="380">
+    <row r="380" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E380" s="31"/>
     </row>
-    <row r="381">
+    <row r="381" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E381" s="31"/>
     </row>
-    <row r="382">
+    <row r="382" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E382" s="31"/>
     </row>
-    <row r="383">
+    <row r="383" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E383" s="31"/>
     </row>
-    <row r="384">
+    <row r="384" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E384" s="31"/>
     </row>
-    <row r="385">
+    <row r="385" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E385" s="31"/>
     </row>
-    <row r="386">
+    <row r="386" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E386" s="31"/>
     </row>
-    <row r="387">
+    <row r="387" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E387" s="31"/>
     </row>
-    <row r="388">
+    <row r="388" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E388" s="31"/>
     </row>
-    <row r="389">
+    <row r="389" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E389" s="31"/>
     </row>
-    <row r="390">
+    <row r="390" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E390" s="31"/>
     </row>
-    <row r="391">
+    <row r="391" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E391" s="31"/>
     </row>
-    <row r="392">
+    <row r="392" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E392" s="31"/>
     </row>
-    <row r="393">
+    <row r="393" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E393" s="31"/>
     </row>
-    <row r="394">
+    <row r="394" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E394" s="31"/>
     </row>
-    <row r="395">
+    <row r="395" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E395" s="31"/>
     </row>
-    <row r="396">
+    <row r="396" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E396" s="31"/>
     </row>
-    <row r="397">
+    <row r="397" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E397" s="31"/>
     </row>
-    <row r="398">
+    <row r="398" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E398" s="31"/>
     </row>
-    <row r="399">
+    <row r="399" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E399" s="31"/>
     </row>
-    <row r="400">
+    <row r="400" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E400" s="31"/>
     </row>
-    <row r="401">
+    <row r="401" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E401" s="31"/>
     </row>
-    <row r="402">
+    <row r="402" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E402" s="31"/>
     </row>
-    <row r="403">
+    <row r="403" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E403" s="31"/>
     </row>
-    <row r="404">
+    <row r="404" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E404" s="31"/>
     </row>
-    <row r="405">
+    <row r="405" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E405" s="31"/>
     </row>
-    <row r="406">
+    <row r="406" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E406" s="31"/>
     </row>
-    <row r="407">
+    <row r="407" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E407" s="31"/>
     </row>
-    <row r="408">
+    <row r="408" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E408" s="31"/>
     </row>
-    <row r="409">
+    <row r="409" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E409" s="31"/>
     </row>
-    <row r="410">
+    <row r="410" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E410" s="31"/>
     </row>
-    <row r="411">
+    <row r="411" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E411" s="31"/>
     </row>
-    <row r="412">
+    <row r="412" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E412" s="31"/>
     </row>
-    <row r="413">
+    <row r="413" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E413" s="31"/>
     </row>
-    <row r="414">
+    <row r="414" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E414" s="31"/>
     </row>
-    <row r="415">
+    <row r="415" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E415" s="31"/>
     </row>
-    <row r="416">
+    <row r="416" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E416" s="31"/>
     </row>
-    <row r="417">
+    <row r="417" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E417" s="31"/>
     </row>
-    <row r="418">
+    <row r="418" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E418" s="31"/>
     </row>
-    <row r="419">
+    <row r="419" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E419" s="31"/>
     </row>
-    <row r="420">
+    <row r="420" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E420" s="31"/>
     </row>
-    <row r="421">
+    <row r="421" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E421" s="31"/>
     </row>
-    <row r="422">
+    <row r="422" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E422" s="31"/>
     </row>
-    <row r="423">
+    <row r="423" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E423" s="31"/>
     </row>
-    <row r="424">
+    <row r="424" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E424" s="31"/>
     </row>
-    <row r="425">
+    <row r="425" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E425" s="31"/>
     </row>
-    <row r="426">
+    <row r="426" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E426" s="31"/>
     </row>
-    <row r="427">
+    <row r="427" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E427" s="31"/>
     </row>
-    <row r="428">
+    <row r="428" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E428" s="31"/>
     </row>
-    <row r="429">
+    <row r="429" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E429" s="31"/>
     </row>
-    <row r="430">
+    <row r="430" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E430" s="31"/>
     </row>
-    <row r="431">
+    <row r="431" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E431" s="31"/>
     </row>
-    <row r="432">
+    <row r="432" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E432" s="31"/>
     </row>
-    <row r="433">
+    <row r="433" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E433" s="31"/>
     </row>
-    <row r="434">
+    <row r="434" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E434" s="31"/>
     </row>
-    <row r="435">
+    <row r="435" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E435" s="31"/>
     </row>
-    <row r="436">
+    <row r="436" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E436" s="31"/>
     </row>
-    <row r="437">
+    <row r="437" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E437" s="31"/>
     </row>
-    <row r="438">
+    <row r="438" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E438" s="31"/>
     </row>
-    <row r="439">
+    <row r="439" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E439" s="31"/>
     </row>
-    <row r="440">
+    <row r="440" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E440" s="31"/>
     </row>
-    <row r="441">
+    <row r="441" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E441" s="31"/>
     </row>
-    <row r="442">
+    <row r="442" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E442" s="31"/>
     </row>
-    <row r="443">
+    <row r="443" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E443" s="31"/>
     </row>
-    <row r="444">
+    <row r="444" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E444" s="31"/>
     </row>
-    <row r="445">
+    <row r="445" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E445" s="31"/>
     </row>
-    <row r="446">
+    <row r="446" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E446" s="31"/>
     </row>
-    <row r="447">
+    <row r="447" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E447" s="31"/>
     </row>
-    <row r="448">
+    <row r="448" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E448" s="31"/>
     </row>
-    <row r="449">
+    <row r="449" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E449" s="31"/>
     </row>
-    <row r="450">
+    <row r="450" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E450" s="31"/>
     </row>
-    <row r="451">
+    <row r="451" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E451" s="31"/>
     </row>
-    <row r="452">
+    <row r="452" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E452" s="31"/>
     </row>
-    <row r="453">
+    <row r="453" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E453" s="31"/>
     </row>
-    <row r="454">
+    <row r="454" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E454" s="31"/>
     </row>
-    <row r="455">
+    <row r="455" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E455" s="31"/>
     </row>
-    <row r="456">
+    <row r="456" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E456" s="31"/>
     </row>
-    <row r="457">
+    <row r="457" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E457" s="31"/>
     </row>
-    <row r="458">
+    <row r="458" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E458" s="31"/>
     </row>
-    <row r="459">
+    <row r="459" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E459" s="31"/>
     </row>
-    <row r="460">
+    <row r="460" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E460" s="31"/>
     </row>
-    <row r="461">
+    <row r="461" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E461" s="31"/>
     </row>
-    <row r="462">
+    <row r="462" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E462" s="31"/>
     </row>
-    <row r="463">
+    <row r="463" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E463" s="31"/>
     </row>
-    <row r="464">
+    <row r="464" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E464" s="31"/>
     </row>
-    <row r="465">
+    <row r="465" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E465" s="31"/>
     </row>
-    <row r="466">
+    <row r="466" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E466" s="31"/>
     </row>
-    <row r="467">
+    <row r="467" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E467" s="31"/>
     </row>
-    <row r="468">
+    <row r="468" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E468" s="31"/>
     </row>
-    <row r="469">
+    <row r="469" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E469" s="31"/>
     </row>
-    <row r="470">
+    <row r="470" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E470" s="31"/>
     </row>
-    <row r="471">
+    <row r="471" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E471" s="31"/>
     </row>
-    <row r="472">
+    <row r="472" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E472" s="31"/>
     </row>
-    <row r="473">
+    <row r="473" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E473" s="31"/>
     </row>
-    <row r="474">
+    <row r="474" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E474" s="31"/>
     </row>
-    <row r="475">
+    <row r="475" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E475" s="31"/>
     </row>
-    <row r="476">
+    <row r="476" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E476" s="31"/>
     </row>
-    <row r="477">
+    <row r="477" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E477" s="31"/>
     </row>
-    <row r="478">
+    <row r="478" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E478" s="31"/>
     </row>
-    <row r="479">
+    <row r="479" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E479" s="31"/>
     </row>
-    <row r="480">
+    <row r="480" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E480" s="31"/>
     </row>
-    <row r="481">
+    <row r="481" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E481" s="31"/>
     </row>
-    <row r="482">
+    <row r="482" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E482" s="31"/>
     </row>
-    <row r="483">
+    <row r="483" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E483" s="31"/>
     </row>
-    <row r="484">
+    <row r="484" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E484" s="31"/>
     </row>
-    <row r="485">
+    <row r="485" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E485" s="31"/>
     </row>
-    <row r="486">
+    <row r="486" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E486" s="31"/>
     </row>
-    <row r="487">
+    <row r="487" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E487" s="31"/>
     </row>
-    <row r="488">
+    <row r="488" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E488" s="31"/>
     </row>
-    <row r="489">
+    <row r="489" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E489" s="31"/>
     </row>
-    <row r="490">
+    <row r="490" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E490" s="31"/>
     </row>
-    <row r="491">
+    <row r="491" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E491" s="31"/>
     </row>
-    <row r="492">
+    <row r="492" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E492" s="31"/>
     </row>
-    <row r="493">
+    <row r="493" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E493" s="31"/>
     </row>
-    <row r="494">
+    <row r="494" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E494" s="31"/>
     </row>
-    <row r="495">
+    <row r="495" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E495" s="31"/>
     </row>
-    <row r="496">
+    <row r="496" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E496" s="31"/>
     </row>
-    <row r="497">
+    <row r="497" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E497" s="31"/>
     </row>
-    <row r="498">
+    <row r="498" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E498" s="31"/>
     </row>
-    <row r="499">
+    <row r="499" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E499" s="31"/>
     </row>
-    <row r="500">
+    <row r="500" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E500" s="31"/>
     </row>
-    <row r="501">
+    <row r="501" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E501" s="31"/>
     </row>
-    <row r="502">
+    <row r="502" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E502" s="31"/>
     </row>
-    <row r="503">
+    <row r="503" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E503" s="31"/>
     </row>
-    <row r="504">
+    <row r="504" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E504" s="31"/>
     </row>
-    <row r="505">
+    <row r="505" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E505" s="31"/>
     </row>
-    <row r="506">
+    <row r="506" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E506" s="31"/>
     </row>
-    <row r="507">
+    <row r="507" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E507" s="31"/>
     </row>
-    <row r="508">
+    <row r="508" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E508" s="31"/>
     </row>
-    <row r="509">
+    <row r="509" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E509" s="31"/>
     </row>
-    <row r="510">
+    <row r="510" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E510" s="31"/>
     </row>
-    <row r="511">
+    <row r="511" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E511" s="31"/>
     </row>
-    <row r="512">
+    <row r="512" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E512" s="31"/>
     </row>
-    <row r="513">
+    <row r="513" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E513" s="31"/>
     </row>
-    <row r="514">
+    <row r="514" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E514" s="31"/>
     </row>
-    <row r="515">
+    <row r="515" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E515" s="31"/>
     </row>
-    <row r="516">
+    <row r="516" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E516" s="31"/>
     </row>
-    <row r="517">
+    <row r="517" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E517" s="31"/>
     </row>
-    <row r="518">
+    <row r="518" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E518" s="31"/>
     </row>
-    <row r="519">
+    <row r="519" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E519" s="31"/>
     </row>
-    <row r="520">
+    <row r="520" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E520" s="31"/>
     </row>
-    <row r="521">
+    <row r="521" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E521" s="31"/>
     </row>
-    <row r="522">
+    <row r="522" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E522" s="31"/>
     </row>
-    <row r="523">
+    <row r="523" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E523" s="31"/>
     </row>
-    <row r="524">
+    <row r="524" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E524" s="31"/>
     </row>
-    <row r="525">
+    <row r="525" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E525" s="31"/>
     </row>
-    <row r="526">
+    <row r="526" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E526" s="31"/>
     </row>
-    <row r="527">
+    <row r="527" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E527" s="31"/>
     </row>
-    <row r="528">
+    <row r="528" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E528" s="31"/>
     </row>
-    <row r="529">
+    <row r="529" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E529" s="31"/>
     </row>
-    <row r="530">
+    <row r="530" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E530" s="31"/>
     </row>
-    <row r="531">
+    <row r="531" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E531" s="31"/>
     </row>
-    <row r="532">
+    <row r="532" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E532" s="31"/>
     </row>
-    <row r="533">
+    <row r="533" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E533" s="31"/>
     </row>
-    <row r="534">
+    <row r="534" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E534" s="31"/>
     </row>
-    <row r="535">
+    <row r="535" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E535" s="31"/>
     </row>
-    <row r="536">
+    <row r="536" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E536" s="31"/>
     </row>
-    <row r="537">
+    <row r="537" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E537" s="31"/>
     </row>
-    <row r="538">
+    <row r="538" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E538" s="31"/>
     </row>
-    <row r="539">
+    <row r="539" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E539" s="31"/>
     </row>
-    <row r="540">
+    <row r="540" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E540" s="31"/>
     </row>
-    <row r="541">
+    <row r="541" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E541" s="31"/>
     </row>
-    <row r="542">
+    <row r="542" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E542" s="31"/>
     </row>
-    <row r="543">
+    <row r="543" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E543" s="31"/>
     </row>
-    <row r="544">
+    <row r="544" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E544" s="31"/>
     </row>
-    <row r="545">
+    <row r="545" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E545" s="31"/>
     </row>
-    <row r="546">
+    <row r="546" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E546" s="31"/>
     </row>
-    <row r="547">
+    <row r="547" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E547" s="31"/>
     </row>
-    <row r="548">
+    <row r="548" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E548" s="31"/>
     </row>
-    <row r="549">
+    <row r="549" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E549" s="31"/>
     </row>
-    <row r="550">
+    <row r="550" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E550" s="31"/>
     </row>
-    <row r="551">
+    <row r="551" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E551" s="31"/>
     </row>
-    <row r="552">
+    <row r="552" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E552" s="31"/>
     </row>
-    <row r="553">
+    <row r="553" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E553" s="31"/>
     </row>
-    <row r="554">
+    <row r="554" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E554" s="31"/>
     </row>
-    <row r="555">
+    <row r="555" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E555" s="31"/>
     </row>
-    <row r="556">
+    <row r="556" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E556" s="31"/>
     </row>
-    <row r="557">
+    <row r="557" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E557" s="31"/>
     </row>
-    <row r="558">
+    <row r="558" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E558" s="31"/>
     </row>
-    <row r="559">
+    <row r="559" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E559" s="31"/>
     </row>
-    <row r="560">
+    <row r="560" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E560" s="31"/>
     </row>
-    <row r="561">
+    <row r="561" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E561" s="31"/>
     </row>
-    <row r="562">
+    <row r="562" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E562" s="31"/>
     </row>
-    <row r="563">
+    <row r="563" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E563" s="31"/>
     </row>
-    <row r="564">
+    <row r="564" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E564" s="31"/>
     </row>
-    <row r="565">
+    <row r="565" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E565" s="31"/>
     </row>
-    <row r="566">
+    <row r="566" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E566" s="31"/>
     </row>
-    <row r="567">
+    <row r="567" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E567" s="31"/>
     </row>
-    <row r="568">
+    <row r="568" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E568" s="31"/>
     </row>
-    <row r="569">
+    <row r="569" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E569" s="31"/>
     </row>
-    <row r="570">
+    <row r="570" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E570" s="31"/>
     </row>
-    <row r="571">
+    <row r="571" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E571" s="31"/>
     </row>
-    <row r="572">
+    <row r="572" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E572" s="31"/>
     </row>
-    <row r="573">
+    <row r="573" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E573" s="31"/>
     </row>
-    <row r="574">
+    <row r="574" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E574" s="31"/>
     </row>
-    <row r="575">
+    <row r="575" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E575" s="31"/>
     </row>
-    <row r="576">
+    <row r="576" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E576" s="31"/>
     </row>
-    <row r="577">
+    <row r="577" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E577" s="31"/>
     </row>
-    <row r="578">
+    <row r="578" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E578" s="31"/>
     </row>
-    <row r="579">
+    <row r="579" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E579" s="31"/>
     </row>
-    <row r="580">
+    <row r="580" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E580" s="31"/>
     </row>
-    <row r="581">
+    <row r="581" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E581" s="31"/>
     </row>
-    <row r="582">
+    <row r="582" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E582" s="31"/>
     </row>
-    <row r="583">
+    <row r="583" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E583" s="31"/>
     </row>
-    <row r="584">
+    <row r="584" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E584" s="31"/>
     </row>
-    <row r="585">
+    <row r="585" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E585" s="31"/>
     </row>
-    <row r="586">
+    <row r="586" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E586" s="31"/>
     </row>
-    <row r="587">
+    <row r="587" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E587" s="31"/>
     </row>
-    <row r="588">
+    <row r="588" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E588" s="31"/>
     </row>
-    <row r="589">
+    <row r="589" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E589" s="31"/>
     </row>
-    <row r="590">
+    <row r="590" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E590" s="31"/>
     </row>
-    <row r="591">
+    <row r="591" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E591" s="31"/>
     </row>
-    <row r="592">
+    <row r="592" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E592" s="31"/>
     </row>
-    <row r="593">
+    <row r="593" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E593" s="31"/>
     </row>
-    <row r="594">
+    <row r="594" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E594" s="31"/>
     </row>
-    <row r="595">
+    <row r="595" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E595" s="31"/>
     </row>
-    <row r="596">
+    <row r="596" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E596" s="31"/>
     </row>
-    <row r="597">
+    <row r="597" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E597" s="31"/>
     </row>
-    <row r="598">
+    <row r="598" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E598" s="31"/>
     </row>
-    <row r="599">
+    <row r="599" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E599" s="31"/>
     </row>
-    <row r="600">
+    <row r="600" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E600" s="31"/>
     </row>
-    <row r="601">
+    <row r="601" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E601" s="31"/>
     </row>
-    <row r="602">
+    <row r="602" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E602" s="31"/>
     </row>
-    <row r="603">
+    <row r="603" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E603" s="31"/>
     </row>
-    <row r="604">
+    <row r="604" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E604" s="31"/>
     </row>
-    <row r="605">
+    <row r="605" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E605" s="31"/>
     </row>
-    <row r="606">
+    <row r="606" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E606" s="31"/>
     </row>
-    <row r="607">
+    <row r="607" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E607" s="31"/>
     </row>
-    <row r="608">
+    <row r="608" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E608" s="31"/>
     </row>
-    <row r="609">
+    <row r="609" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E609" s="31"/>
     </row>
-    <row r="610">
+    <row r="610" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E610" s="31"/>
     </row>
-    <row r="611">
+    <row r="611" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E611" s="31"/>
     </row>
-    <row r="612">
+    <row r="612" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E612" s="31"/>
     </row>
-    <row r="613">
+    <row r="613" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E613" s="31"/>
     </row>
-    <row r="614">
+    <row r="614" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E614" s="31"/>
     </row>
-    <row r="615">
+    <row r="615" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E615" s="31"/>
     </row>
-    <row r="616">
+    <row r="616" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E616" s="31"/>
     </row>
-    <row r="617">
+    <row r="617" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E617" s="31"/>
     </row>
-    <row r="618">
+    <row r="618" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E618" s="31"/>
     </row>
-    <row r="619">
+    <row r="619" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E619" s="31"/>
     </row>
-    <row r="620">
+    <row r="620" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E620" s="31"/>
     </row>
-    <row r="621">
+    <row r="621" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E621" s="31"/>
     </row>
-    <row r="622">
+    <row r="622" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E622" s="31"/>
     </row>
-    <row r="623">
+    <row r="623" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E623" s="31"/>
     </row>
-    <row r="624">
+    <row r="624" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E624" s="31"/>
     </row>
-    <row r="625">
+    <row r="625" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E625" s="31"/>
     </row>
-    <row r="626">
+    <row r="626" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E626" s="31"/>
     </row>
-    <row r="627">
+    <row r="627" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E627" s="31"/>
     </row>
-    <row r="628">
+    <row r="628" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E628" s="31"/>
     </row>
-    <row r="629">
+    <row r="629" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E629" s="31"/>
     </row>
-    <row r="630">
+    <row r="630" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E630" s="31"/>
     </row>
-    <row r="631">
+    <row r="631" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E631" s="31"/>
     </row>
-    <row r="632">
+    <row r="632" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E632" s="31"/>
     </row>
-    <row r="633">
+    <row r="633" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E633" s="31"/>
     </row>
-    <row r="634">
+    <row r="634" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E634" s="31"/>
     </row>
-    <row r="635">
+    <row r="635" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E635" s="31"/>
     </row>
-    <row r="636">
+    <row r="636" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E636" s="31"/>
     </row>
-    <row r="637">
+    <row r="637" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E637" s="31"/>
     </row>
-    <row r="638">
+    <row r="638" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E638" s="31"/>
     </row>
-    <row r="639">
+    <row r="639" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E639" s="31"/>
     </row>
-    <row r="640">
+    <row r="640" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E640" s="31"/>
     </row>
-    <row r="641">
+    <row r="641" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E641" s="31"/>
     </row>
-    <row r="642">
+    <row r="642" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E642" s="31"/>
     </row>
-    <row r="643">
+    <row r="643" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E643" s="31"/>
     </row>
-    <row r="644">
+    <row r="644" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E644" s="31"/>
     </row>
-    <row r="645">
+    <row r="645" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E645" s="31"/>
     </row>
-    <row r="646">
+    <row r="646" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E646" s="31"/>
     </row>
-    <row r="647">
+    <row r="647" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E647" s="31"/>
     </row>
-    <row r="648">
+    <row r="648" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E648" s="31"/>
     </row>
-    <row r="649">
+    <row r="649" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E649" s="31"/>
     </row>
-    <row r="650">
+    <row r="650" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E650" s="31"/>
     </row>
-    <row r="651">
+    <row r="651" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E651" s="31"/>
     </row>
-    <row r="652">
+    <row r="652" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E652" s="31"/>
     </row>
-    <row r="653">
+    <row r="653" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E653" s="31"/>
     </row>
-    <row r="654">
+    <row r="654" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E654" s="31"/>
     </row>
-    <row r="655">
+    <row r="655" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E655" s="31"/>
     </row>
-    <row r="656">
+    <row r="656" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E656" s="31"/>
     </row>
-    <row r="657">
+    <row r="657" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E657" s="31"/>
     </row>
-    <row r="658">
+    <row r="658" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E658" s="31"/>
     </row>
-    <row r="659">
+    <row r="659" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E659" s="31"/>
     </row>
-    <row r="660">
+    <row r="660" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E660" s="31"/>
     </row>
-    <row r="661">
+    <row r="661" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E661" s="31"/>
     </row>
-    <row r="662">
+    <row r="662" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E662" s="31"/>
     </row>
-    <row r="663">
+    <row r="663" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E663" s="31"/>
     </row>
-    <row r="664">
+    <row r="664" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E664" s="31"/>
     </row>
-    <row r="665">
+    <row r="665" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E665" s="31"/>
     </row>
-    <row r="666">
+    <row r="666" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E666" s="31"/>
     </row>
-    <row r="667">
+    <row r="667" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E667" s="31"/>
     </row>
-    <row r="668">
+    <row r="668" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E668" s="31"/>
     </row>
-    <row r="669">
+    <row r="669" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E669" s="31"/>
     </row>
-    <row r="670">
+    <row r="670" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E670" s="31"/>
     </row>
-    <row r="671">
+    <row r="671" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E671" s="31"/>
     </row>
-    <row r="672">
+    <row r="672" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E672" s="31"/>
     </row>
-    <row r="673">
+    <row r="673" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E673" s="31"/>
     </row>
-    <row r="674">
+    <row r="674" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E674" s="31"/>
     </row>
-    <row r="675">
+    <row r="675" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E675" s="31"/>
     </row>
-    <row r="676">
+    <row r="676" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E676" s="31"/>
     </row>
-    <row r="677">
+    <row r="677" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E677" s="31"/>
     </row>
-    <row r="678">
+    <row r="678" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E678" s="31"/>
     </row>
-    <row r="679">
+    <row r="679" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E679" s="31"/>
     </row>
-    <row r="680">
+    <row r="680" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E680" s="31"/>
     </row>
-    <row r="681">
+    <row r="681" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E681" s="31"/>
     </row>
-    <row r="682">
+    <row r="682" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E682" s="31"/>
     </row>
-    <row r="683">
+    <row r="683" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E683" s="31"/>
     </row>
-    <row r="684">
+    <row r="684" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E684" s="31"/>
     </row>
-    <row r="685">
+    <row r="685" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E685" s="31"/>
     </row>
-    <row r="686">
+    <row r="686" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E686" s="31"/>
     </row>
-    <row r="687">
+    <row r="687" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E687" s="31"/>
     </row>
-    <row r="688">
+    <row r="688" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E688" s="31"/>
     </row>
-    <row r="689">
+    <row r="689" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E689" s="31"/>
     </row>
-    <row r="690">
+    <row r="690" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E690" s="31"/>
     </row>
-    <row r="691">
+    <row r="691" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E691" s="31"/>
     </row>
-    <row r="692">
+    <row r="692" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E692" s="31"/>
     </row>
-    <row r="693">
+    <row r="693" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E693" s="31"/>
     </row>
-    <row r="694">
+    <row r="694" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E694" s="31"/>
     </row>
-    <row r="695">
+    <row r="695" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E695" s="31"/>
     </row>
-    <row r="696">
+    <row r="696" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E696" s="31"/>
     </row>
-    <row r="697">
+    <row r="697" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E697" s="31"/>
     </row>
-    <row r="698">
+    <row r="698" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E698" s="31"/>
     </row>
-    <row r="699">
+    <row r="699" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E699" s="31"/>
     </row>
-    <row r="700">
+    <row r="700" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E700" s="31"/>
     </row>
-    <row r="701">
+    <row r="701" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E701" s="31"/>
     </row>
-    <row r="702">
+    <row r="702" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E702" s="31"/>
     </row>
-    <row r="703">
+    <row r="703" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E703" s="31"/>
     </row>
-    <row r="704">
+    <row r="704" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E704" s="31"/>
     </row>
-    <row r="705">
+    <row r="705" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E705" s="31"/>
     </row>
-    <row r="706">
+    <row r="706" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E706" s="31"/>
     </row>
-    <row r="707">
+    <row r="707" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E707" s="31"/>
     </row>
-    <row r="708">
+    <row r="708" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E708" s="31"/>
     </row>
-    <row r="709">
+    <row r="709" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E709" s="31"/>
     </row>
-    <row r="710">
+    <row r="710" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E710" s="31"/>
     </row>
-    <row r="711">
+    <row r="711" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E711" s="31"/>
     </row>
-    <row r="712">
+    <row r="712" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E712" s="31"/>
     </row>
-    <row r="713">
+    <row r="713" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E713" s="31"/>
     </row>
-    <row r="714">
+    <row r="714" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E714" s="31"/>
     </row>
-    <row r="715">
+    <row r="715" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E715" s="31"/>
     </row>
-    <row r="716">
+    <row r="716" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E716" s="31"/>
     </row>
-    <row r="717">
+    <row r="717" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E717" s="31"/>
     </row>
-    <row r="718">
+    <row r="718" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E718" s="31"/>
     </row>
-    <row r="719">
+    <row r="719" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E719" s="31"/>
     </row>
-    <row r="720">
+    <row r="720" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E720" s="31"/>
     </row>
-    <row r="721">
+    <row r="721" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E721" s="31"/>
     </row>
-    <row r="722">
+    <row r="722" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E722" s="31"/>
     </row>
-    <row r="723">
+    <row r="723" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E723" s="31"/>
     </row>
-    <row r="724">
+    <row r="724" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E724" s="31"/>
     </row>
-    <row r="725">
+    <row r="725" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E725" s="31"/>
     </row>
-    <row r="726">
+    <row r="726" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E726" s="31"/>
     </row>
-    <row r="727">
+    <row r="727" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E727" s="31"/>
     </row>
-    <row r="728">
+    <row r="728" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E728" s="31"/>
     </row>
-    <row r="729">
+    <row r="729" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E729" s="31"/>
     </row>
-    <row r="730">
+    <row r="730" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E730" s="31"/>
     </row>
-    <row r="731">
+    <row r="731" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E731" s="31"/>
     </row>
-    <row r="732">
+    <row r="732" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E732" s="31"/>
     </row>
-    <row r="733">
+    <row r="733" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E733" s="31"/>
     </row>
-    <row r="734">
+    <row r="734" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E734" s="31"/>
     </row>
-    <row r="735">
+    <row r="735" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E735" s="31"/>
     </row>
-    <row r="736">
+    <row r="736" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E736" s="31"/>
     </row>
-    <row r="737">
+    <row r="737" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E737" s="31"/>
     </row>
-    <row r="738">
+    <row r="738" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E738" s="31"/>
     </row>
-    <row r="739">
+    <row r="739" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E739" s="31"/>
     </row>
-    <row r="740">
+    <row r="740" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E740" s="31"/>
     </row>
-    <row r="741">
+    <row r="741" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E741" s="31"/>
     </row>
-    <row r="742">
+    <row r="742" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E742" s="31"/>
     </row>
-    <row r="743">
+    <row r="743" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E743" s="31"/>
     </row>
-    <row r="744">
+    <row r="744" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E744" s="31"/>
     </row>
-    <row r="745">
+    <row r="745" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E745" s="31"/>
     </row>
-    <row r="746">
+    <row r="746" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E746" s="31"/>
     </row>
-    <row r="747">
+    <row r="747" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E747" s="31"/>
     </row>
-    <row r="748">
+    <row r="748" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E748" s="31"/>
     </row>
-    <row r="749">
+    <row r="749" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E749" s="31"/>
     </row>
-    <row r="750">
+    <row r="750" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E750" s="31"/>
     </row>
-    <row r="751">
+    <row r="751" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E751" s="31"/>
     </row>
-    <row r="752">
+    <row r="752" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E752" s="31"/>
     </row>
-    <row r="753">
+    <row r="753" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E753" s="31"/>
     </row>
-    <row r="754">
+    <row r="754" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E754" s="31"/>
     </row>
-    <row r="755">
+    <row r="755" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E755" s="31"/>
     </row>
-    <row r="756">
+    <row r="756" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E756" s="31"/>
     </row>
-    <row r="757">
+    <row r="757" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E757" s="31"/>
     </row>
-    <row r="758">
+    <row r="758" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E758" s="31"/>
     </row>
-    <row r="759">
+    <row r="759" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E759" s="31"/>
     </row>
-    <row r="760">
+    <row r="760" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E760" s="31"/>
     </row>
-    <row r="761">
+    <row r="761" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E761" s="31"/>
     </row>
-    <row r="762">
+    <row r="762" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E762" s="31"/>
     </row>
-    <row r="763">
+    <row r="763" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E763" s="31"/>
     </row>
-    <row r="764">
+    <row r="764" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E764" s="31"/>
     </row>
-    <row r="765">
+    <row r="765" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E765" s="31"/>
     </row>
-    <row r="766">
+    <row r="766" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E766" s="31"/>
     </row>
-    <row r="767">
+    <row r="767" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E767" s="31"/>
     </row>
-    <row r="768">
+    <row r="768" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E768" s="31"/>
     </row>
-    <row r="769">
+    <row r="769" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E769" s="31"/>
     </row>
-    <row r="770">
+    <row r="770" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E770" s="31"/>
     </row>
-    <row r="771">
+    <row r="771" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E771" s="31"/>
     </row>
-    <row r="772">
+    <row r="772" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E772" s="31"/>
     </row>
-    <row r="773">
+    <row r="773" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E773" s="31"/>
     </row>
-    <row r="774">
+    <row r="774" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E774" s="31"/>
     </row>
-    <row r="775">
+    <row r="775" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E775" s="31"/>
     </row>
-    <row r="776">
+    <row r="776" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E776" s="31"/>
     </row>
-    <row r="777">
+    <row r="777" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E777" s="31"/>
     </row>
-    <row r="778">
+    <row r="778" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E778" s="31"/>
     </row>
-    <row r="779">
+    <row r="779" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E779" s="31"/>
     </row>
-    <row r="780">
+    <row r="780" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E780" s="31"/>
     </row>
-    <row r="781">
+    <row r="781" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E781" s="31"/>
     </row>
-    <row r="782">
+    <row r="782" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E782" s="31"/>
     </row>
-    <row r="783">
+    <row r="783" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E783" s="31"/>
     </row>
-    <row r="784">
+    <row r="784" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E784" s="31"/>
     </row>
-    <row r="785">
+    <row r="785" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E785" s="31"/>
     </row>
-    <row r="786">
+    <row r="786" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E786" s="31"/>
     </row>
-    <row r="787">
+    <row r="787" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E787" s="31"/>
     </row>
-    <row r="788">
+    <row r="788" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E788" s="31"/>
     </row>
-    <row r="789">
+    <row r="789" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E789" s="31"/>
     </row>
-    <row r="790">
+    <row r="790" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E790" s="31"/>
     </row>
-    <row r="791">
+    <row r="791" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E791" s="31"/>
     </row>
-    <row r="792">
+    <row r="792" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E792" s="31"/>
     </row>
-    <row r="793">
+    <row r="793" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E793" s="31"/>
     </row>
-    <row r="794">
+    <row r="794" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E794" s="31"/>
     </row>
-    <row r="795">
+    <row r="795" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E795" s="31"/>
     </row>
-    <row r="796">
+    <row r="796" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E796" s="31"/>
     </row>
-    <row r="797">
+    <row r="797" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E797" s="31"/>
     </row>
-    <row r="798">
+    <row r="798" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E798" s="31"/>
     </row>
-    <row r="799">
+    <row r="799" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E799" s="31"/>
     </row>
-    <row r="800">
+    <row r="800" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E800" s="31"/>
     </row>
-    <row r="801">
+    <row r="801" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E801" s="31"/>
     </row>
-    <row r="802">
+    <row r="802" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E802" s="31"/>
     </row>
-    <row r="803">
+    <row r="803" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E803" s="31"/>
     </row>
-    <row r="804">
+    <row r="804" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E804" s="31"/>
     </row>
-    <row r="805">
+    <row r="805" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E805" s="31"/>
     </row>
-    <row r="806">
+    <row r="806" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E806" s="31"/>
     </row>
-    <row r="807">
+    <row r="807" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E807" s="31"/>
     </row>
-    <row r="808">
+    <row r="808" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E808" s="31"/>
     </row>
-    <row r="809">
+    <row r="809" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E809" s="31"/>
     </row>
-    <row r="810">
+    <row r="810" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E810" s="31"/>
     </row>
-    <row r="811">
+    <row r="811" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E811" s="31"/>
     </row>
-    <row r="812">
+    <row r="812" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E812" s="31"/>
     </row>
-    <row r="813">
+    <row r="813" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E813" s="31"/>
     </row>
-    <row r="814">
+    <row r="814" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E814" s="31"/>
     </row>
-    <row r="815">
+    <row r="815" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E815" s="31"/>
     </row>
-    <row r="816">
+    <row r="816" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E816" s="31"/>
     </row>
-    <row r="817">
+    <row r="817" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E817" s="31"/>
     </row>
-    <row r="818">
+    <row r="818" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E818" s="31"/>
     </row>
-    <row r="819">
+    <row r="819" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E819" s="31"/>
     </row>
-    <row r="820">
+    <row r="820" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E820" s="31"/>
     </row>
-    <row r="821">
+    <row r="821" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E821" s="31"/>
     </row>
-    <row r="822">
+    <row r="822" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E822" s="31"/>
     </row>
-    <row r="823">
+    <row r="823" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E823" s="31"/>
     </row>
-    <row r="824">
+    <row r="824" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E824" s="31"/>
     </row>
-    <row r="825">
+    <row r="825" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E825" s="31"/>
     </row>
-    <row r="826">
+    <row r="826" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E826" s="31"/>
     </row>
-    <row r="827">
+    <row r="827" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E827" s="31"/>
     </row>
-    <row r="828">
+    <row r="828" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E828" s="31"/>
     </row>
-    <row r="829">
+    <row r="829" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E829" s="31"/>
     </row>
-    <row r="830">
+    <row r="830" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E830" s="31"/>
     </row>
-    <row r="831">
+    <row r="831" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E831" s="31"/>
     </row>
-    <row r="832">
+    <row r="832" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E832" s="31"/>
     </row>
-    <row r="833">
+    <row r="833" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E833" s="31"/>
     </row>
-    <row r="834">
+    <row r="834" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E834" s="31"/>
     </row>
-    <row r="835">
+    <row r="835" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E835" s="31"/>
     </row>
-    <row r="836">
+    <row r="836" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E836" s="31"/>
     </row>
-    <row r="837">
+    <row r="837" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E837" s="31"/>
     </row>
-    <row r="838">
+    <row r="838" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E838" s="31"/>
     </row>
-    <row r="839">
+    <row r="839" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E839" s="31"/>
     </row>
-    <row r="840">
+    <row r="840" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E840" s="31"/>
     </row>
-    <row r="841">
+    <row r="841" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E841" s="31"/>
     </row>
-    <row r="842">
+    <row r="842" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E842" s="31"/>
     </row>
-    <row r="843">
+    <row r="843" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E843" s="31"/>
     </row>
-    <row r="844">
+    <row r="844" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E844" s="31"/>
     </row>
-    <row r="845">
+    <row r="845" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E845" s="31"/>
     </row>
-    <row r="846">
+    <row r="846" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E846" s="31"/>
     </row>
-    <row r="847">
+    <row r="847" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E847" s="31"/>
     </row>
-    <row r="848">
+    <row r="848" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E848" s="31"/>
     </row>
-    <row r="849">
+    <row r="849" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E849" s="31"/>
     </row>
-    <row r="850">
+    <row r="850" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E850" s="31"/>
     </row>
-    <row r="851">
+    <row r="851" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E851" s="31"/>
     </row>
-    <row r="852">
+    <row r="852" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E852" s="31"/>
     </row>
-    <row r="853">
+    <row r="853" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E853" s="31"/>
     </row>
-    <row r="854">
+    <row r="854" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E854" s="31"/>
     </row>
-    <row r="855">
+    <row r="855" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E855" s="31"/>
     </row>
-    <row r="856">
+    <row r="856" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E856" s="31"/>
     </row>
-    <row r="857">
+    <row r="857" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E857" s="31"/>
     </row>
-    <row r="858">
+    <row r="858" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E858" s="31"/>
     </row>
-    <row r="859">
+    <row r="859" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E859" s="31"/>
     </row>
-    <row r="860">
+    <row r="860" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E860" s="31"/>
     </row>
-    <row r="861">
+    <row r="861" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E861" s="31"/>
     </row>
-    <row r="862">
+    <row r="862" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E862" s="31"/>
     </row>
-    <row r="863">
+    <row r="863" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E863" s="31"/>
     </row>
-    <row r="864">
+    <row r="864" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E864" s="31"/>
     </row>
-    <row r="865">
+    <row r="865" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E865" s="31"/>
     </row>
-    <row r="866">
+    <row r="866" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E866" s="31"/>
     </row>
-    <row r="867">
+    <row r="867" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E867" s="31"/>
     </row>
-    <row r="868">
+    <row r="868" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E868" s="31"/>
     </row>
-    <row r="869">
+    <row r="869" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E869" s="31"/>
     </row>
-    <row r="870">
+    <row r="870" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E870" s="31"/>
     </row>
-    <row r="871">
+    <row r="871" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E871" s="31"/>
     </row>
-    <row r="872">
+    <row r="872" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E872" s="31"/>
     </row>
-    <row r="873">
+    <row r="873" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E873" s="31"/>
     </row>
-    <row r="874">
+    <row r="874" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E874" s="31"/>
     </row>
-    <row r="875">
+    <row r="875" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E875" s="31"/>
     </row>
-    <row r="876">
+    <row r="876" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E876" s="31"/>
     </row>
-    <row r="877">
+    <row r="877" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E877" s="31"/>
     </row>
-    <row r="878">
+    <row r="878" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E878" s="31"/>
     </row>
-    <row r="879">
+    <row r="879" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E879" s="31"/>
     </row>
-    <row r="880">
+    <row r="880" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E880" s="31"/>
     </row>
-    <row r="881">
+    <row r="881" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E881" s="31"/>
     </row>
-    <row r="882">
+    <row r="882" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E882" s="31"/>
     </row>
-    <row r="883">
+    <row r="883" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E883" s="31"/>
     </row>
-    <row r="884">
+    <row r="884" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E884" s="31"/>
     </row>
-    <row r="885">
+    <row r="885" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E885" s="31"/>
     </row>
-    <row r="886">
+    <row r="886" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E886" s="31"/>
     </row>
-    <row r="887">
+    <row r="887" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E887" s="31"/>
     </row>
-    <row r="888">
+    <row r="888" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E888" s="31"/>
     </row>
-    <row r="889">
+    <row r="889" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E889" s="31"/>
     </row>
-    <row r="890">
+    <row r="890" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E890" s="31"/>
     </row>
-    <row r="891">
+    <row r="891" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E891" s="31"/>
     </row>
-    <row r="892">
+    <row r="892" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E892" s="31"/>
     </row>
-    <row r="893">
+    <row r="893" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E893" s="31"/>
     </row>
-    <row r="894">
+    <row r="894" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E894" s="31"/>
     </row>
-    <row r="895">
+    <row r="895" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E895" s="31"/>
     </row>
-    <row r="896">
+    <row r="896" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E896" s="31"/>
     </row>
-    <row r="897">
+    <row r="897" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E897" s="31"/>
     </row>
-    <row r="898">
+    <row r="898" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E898" s="31"/>
     </row>
-    <row r="899">
+    <row r="899" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E899" s="31"/>
     </row>
-    <row r="900">
+    <row r="900" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E900" s="31"/>
     </row>
-    <row r="901">
+    <row r="901" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E901" s="31"/>
     </row>
-    <row r="902">
+    <row r="902" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E902" s="31"/>
     </row>
-    <row r="903">
+    <row r="903" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E903" s="31"/>
     </row>
-    <row r="904">
+    <row r="904" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E904" s="31"/>
     </row>
-    <row r="905">
+    <row r="905" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E905" s="31"/>
     </row>
-    <row r="906">
+    <row r="906" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E906" s="31"/>
     </row>
-    <row r="907">
+    <row r="907" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E907" s="31"/>
     </row>
-    <row r="908">
+    <row r="908" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E908" s="31"/>
     </row>
-    <row r="909">
+    <row r="909" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E909" s="31"/>
     </row>
-    <row r="910">
+    <row r="910" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E910" s="31"/>
     </row>
-    <row r="911">
+    <row r="911" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E911" s="31"/>
     </row>
-    <row r="912">
+    <row r="912" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E912" s="31"/>
     </row>
-    <row r="913">
+    <row r="913" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E913" s="31"/>
     </row>
-    <row r="914">
+    <row r="914" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E914" s="31"/>
     </row>
-    <row r="915">
+    <row r="915" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E915" s="31"/>
     </row>
-    <row r="916">
+    <row r="916" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E916" s="31"/>
     </row>
-    <row r="917">
+    <row r="917" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E917" s="31"/>
     </row>
-    <row r="918">
+    <row r="918" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E918" s="31"/>
     </row>
-    <row r="919">
+    <row r="919" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E919" s="31"/>
     </row>
-    <row r="920">
+    <row r="920" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E920" s="31"/>
     </row>
-    <row r="921">
+    <row r="921" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E921" s="31"/>
     </row>
-    <row r="922">
+    <row r="922" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E922" s="31"/>
     </row>
-    <row r="923">
+    <row r="923" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E923" s="31"/>
     </row>
-    <row r="924">
+    <row r="924" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E924" s="31"/>
     </row>
-    <row r="925">
+    <row r="925" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E925" s="31"/>
     </row>
-    <row r="926">
+    <row r="926" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E926" s="31"/>
     </row>
-    <row r="927">
+    <row r="927" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E927" s="31"/>
     </row>
-    <row r="928">
+    <row r="928" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E928" s="31"/>
     </row>
-    <row r="929">
+    <row r="929" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E929" s="31"/>
     </row>
-    <row r="930">
+    <row r="930" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E930" s="31"/>
     </row>
-    <row r="931">
+    <row r="931" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E931" s="31"/>
     </row>
-    <row r="932">
+    <row r="932" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E932" s="31"/>
     </row>
-    <row r="933">
+    <row r="933" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E933" s="31"/>
     </row>
-    <row r="934">
+    <row r="934" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E934" s="31"/>
     </row>
-    <row r="935">
+    <row r="935" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E935" s="31"/>
     </row>
-    <row r="936">
+    <row r="936" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E936" s="31"/>
     </row>
-    <row r="937">
+    <row r="937" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E937" s="31"/>
     </row>
-    <row r="938">
+    <row r="938" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E938" s="31"/>
     </row>
-    <row r="939">
+    <row r="939" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E939" s="31"/>
     </row>
-    <row r="940">
+    <row r="940" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E940" s="31"/>
     </row>
-    <row r="941">
+    <row r="941" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E941" s="31"/>
     </row>
-    <row r="942">
+    <row r="942" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E942" s="31"/>
     </row>
-    <row r="943">
+    <row r="943" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E943" s="31"/>
     </row>
-    <row r="944">
+    <row r="944" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E944" s="31"/>
     </row>
-    <row r="945">
+    <row r="945" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E945" s="31"/>
     </row>
-    <row r="946">
+    <row r="946" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E946" s="31"/>
     </row>
-    <row r="947">
+    <row r="947" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E947" s="31"/>
     </row>
-    <row r="948">
+    <row r="948" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E948" s="31"/>
     </row>
-    <row r="949">
+    <row r="949" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E949" s="31"/>
     </row>
-    <row r="950">
+    <row r="950" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E950" s="31"/>
     </row>
-    <row r="951">
+    <row r="951" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E951" s="31"/>
     </row>
-    <row r="952">
+    <row r="952" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E952" s="31"/>
     </row>
-    <row r="953">
+    <row r="953" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E953" s="31"/>
     </row>
-    <row r="954">
+    <row r="954" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E954" s="31"/>
     </row>
-    <row r="955">
+    <row r="955" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E955" s="31"/>
     </row>
-    <row r="956">
+    <row r="956" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E956" s="31"/>
     </row>
-    <row r="957">
+    <row r="957" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E957" s="31"/>
     </row>
-    <row r="958">
+    <row r="958" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E958" s="31"/>
     </row>
-    <row r="959">
+    <row r="959" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E959" s="31"/>
     </row>
-    <row r="960">
+    <row r="960" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E960" s="31"/>
     </row>
-    <row r="961">
+    <row r="961" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E961" s="31"/>
     </row>
-    <row r="962">
+    <row r="962" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E962" s="31"/>
     </row>
-    <row r="963">
+    <row r="963" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E963" s="31"/>
     </row>
-    <row r="964">
+    <row r="964" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E964" s="31"/>
     </row>
-    <row r="965">
+    <row r="965" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E965" s="31"/>
     </row>
-    <row r="966">
+    <row r="966" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E966" s="31"/>
     </row>
-    <row r="967">
+    <row r="967" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E967" s="31"/>
     </row>
-    <row r="968">
+    <row r="968" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E968" s="31"/>
     </row>
-    <row r="969">
+    <row r="969" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E969" s="31"/>
     </row>
-    <row r="970">
+    <row r="970" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E970" s="31"/>
     </row>
-    <row r="971">
+    <row r="971" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E971" s="31"/>
     </row>
-    <row r="972">
+    <row r="972" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E972" s="31"/>
     </row>
-    <row r="973">
+    <row r="973" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E973" s="31"/>
     </row>
-    <row r="974">
+    <row r="974" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E974" s="31"/>
     </row>
-    <row r="975">
+    <row r="975" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E975" s="31"/>
     </row>
-    <row r="976">
+    <row r="976" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E976" s="31"/>
     </row>
-    <row r="977">
+    <row r="977" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E977" s="31"/>
     </row>
-    <row r="978">
+    <row r="978" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E978" s="31"/>
     </row>
-    <row r="979">
+    <row r="979" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E979" s="31"/>
     </row>
-    <row r="980">
+    <row r="980" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E980" s="31"/>
     </row>
-    <row r="981">
+    <row r="981" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E981" s="31"/>
     </row>
-    <row r="982">
+    <row r="982" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E982" s="31"/>
     </row>
-    <row r="983">
+    <row r="983" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E983" s="31"/>
     </row>
-    <row r="984">
+    <row r="984" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E984" s="31"/>
     </row>
-    <row r="985">
+    <row r="985" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E985" s="31"/>
     </row>
-    <row r="986">
+    <row r="986" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E986" s="31"/>
     </row>
-    <row r="987">
+    <row r="987" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E987" s="31"/>
     </row>
-    <row r="988">
+    <row r="988" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E988" s="31"/>
     </row>
-    <row r="989">
+    <row r="989" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E989" s="31"/>
     </row>
-    <row r="990">
+    <row r="990" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E990" s="31"/>
     </row>
-    <row r="991">
+    <row r="991" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E991" s="31"/>
     </row>
-    <row r="992">
+    <row r="992" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E992" s="31"/>
     </row>
-    <row r="993">
+    <row r="993" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E993" s="31"/>
     </row>
-    <row r="994">
+    <row r="994" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E994" s="31"/>
     </row>
-    <row r="995">
+    <row r="995" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E995" s="31"/>
     </row>
-    <row r="996">
+    <row r="996" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E996" s="31"/>
     </row>
-    <row r="997">
+    <row r="997" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E997" s="31"/>
     </row>
-    <row r="998">
+    <row r="998" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E998" s="31"/>
     </row>
-    <row r="999">
+    <row r="999" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E999" s="31"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1000" s="31"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1001" s="31"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1002" s="31"/>
     </row>
-    <row r="1003">
+    <row r="1003" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1003" s="31"/>
     </row>
-    <row r="1004">
+    <row r="1004" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1004" s="31"/>
     </row>
-    <row r="1005">
+    <row r="1005" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1005" s="31"/>
     </row>
-    <row r="1006">
+    <row r="1006" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1006" s="31"/>
     </row>
-    <row r="1007">
+    <row r="1007" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1007" s="31"/>
     </row>
-    <row r="1008">
+    <row r="1008" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1008" s="31"/>
     </row>
-    <row r="1009">
+    <row r="1009" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1009" s="31"/>
     </row>
-    <row r="1010">
+    <row r="1010" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1010" s="31"/>
     </row>
-    <row r="1011">
+    <row r="1011" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1011" s="31"/>
     </row>
-    <row r="1012">
+    <row r="1012" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1012" s="31"/>
     </row>
-    <row r="1013">
+    <row r="1013" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1013" s="31"/>
     </row>
-    <row r="1014">
+    <row r="1014" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1014" s="31"/>
     </row>
-    <row r="1015">
+    <row r="1015" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1015" s="31"/>
     </row>
-    <row r="1016">
+    <row r="1016" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1016" s="31"/>
     </row>
-    <row r="1017">
+    <row r="1017" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1017" s="31"/>
     </row>
-    <row r="1018">
+    <row r="1018" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1018" s="31"/>
     </row>
-    <row r="1019">
+    <row r="1019" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1019" s="31"/>
     </row>
-    <row r="1020">
+    <row r="1020" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1020" s="31"/>
     </row>
-    <row r="1021">
+    <row r="1021" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1021" s="31"/>
     </row>
-    <row r="1022">
+    <row r="1022" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1022" s="31"/>
     </row>
-    <row r="1023">
+    <row r="1023" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1023" s="31"/>
     </row>
-    <row r="1024">
+    <row r="1024" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1024" s="31"/>
     </row>
-    <row r="1025">
+    <row r="1025" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1025" s="31"/>
     </row>
-    <row r="1026">
+    <row r="1026" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1026" s="31"/>
     </row>
-    <row r="1027">
+    <row r="1027" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1027" s="31"/>
     </row>
-    <row r="1028">
+    <row r="1028" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1028" s="31"/>
     </row>
-    <row r="1029">
+    <row r="1029" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1029" s="31"/>
     </row>
-    <row r="1030">
+    <row r="1030" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1030" s="31"/>
     </row>
-    <row r="1031">
+    <row r="1031" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1031" s="31"/>
     </row>
-    <row r="1032">
+    <row r="1032" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1032" s="31"/>
     </row>
-    <row r="1033">
+    <row r="1033" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1033" s="31"/>
     </row>
-    <row r="1034">
+    <row r="1034" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1034" s="31"/>
     </row>
-    <row r="1035">
+    <row r="1035" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1035" s="31"/>
     </row>
-    <row r="1036">
+    <row r="1036" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1036" s="31"/>
     </row>
-    <row r="1037">
+    <row r="1037" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1037" s="31"/>
     </row>
-    <row r="1038">
+    <row r="1038" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1038" s="31"/>
     </row>
-    <row r="1039">
+    <row r="1039" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1039" s="31"/>
     </row>
-    <row r="1040">
+    <row r="1040" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1040" s="31"/>
     </row>
-    <row r="1041">
+    <row r="1041" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1041" s="31"/>
     </row>
-    <row r="1042">
+    <row r="1042" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1042" s="31"/>
     </row>
-    <row r="1043">
+    <row r="1043" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1043" s="31"/>
     </row>
-    <row r="1044">
+    <row r="1044" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1044" s="31"/>
     </row>
-    <row r="1045">
+    <row r="1045" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1045" s="31"/>
     </row>
-    <row r="1046">
+    <row r="1046" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1046" s="31"/>
     </row>
-    <row r="1047">
+    <row r="1047" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1047" s="31"/>
     </row>
-    <row r="1048">
+    <row r="1048" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1048" s="31"/>
     </row>
-    <row r="1049">
+    <row r="1049" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1049" s="31"/>
     </row>
-    <row r="1050">
+    <row r="1050" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1050" s="31"/>
     </row>
-    <row r="1051">
+    <row r="1051" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1051" s="31"/>
     </row>
-    <row r="1052">
+    <row r="1052" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1052" s="31"/>
     </row>
-    <row r="1053">
+    <row r="1053" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1053" s="31"/>
     </row>
-    <row r="1054">
+    <row r="1054" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1054" s="31"/>
     </row>
-    <row r="1055">
+    <row r="1055" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1055" s="31"/>
     </row>
-    <row r="1056">
+    <row r="1056" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1056" s="31"/>
     </row>
-    <row r="1057">
+    <row r="1057" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1057" s="31"/>
     </row>
-    <row r="1058">
+    <row r="1058" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1058" s="31"/>
     </row>
-    <row r="1059">
+    <row r="1059" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1059" s="31"/>
     </row>
-    <row r="1060">
+    <row r="1060" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1060" s="31"/>
     </row>
-    <row r="1061">
+    <row r="1061" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1061" s="31"/>
     </row>
-    <row r="1062">
+    <row r="1062" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1062" s="31"/>
     </row>
-    <row r="1063">
+    <row r="1063" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1063" s="31"/>
     </row>
-    <row r="1064">
+    <row r="1064" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1064" s="31"/>
     </row>
-    <row r="1065">
+    <row r="1065" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1065" s="31"/>
     </row>
-    <row r="1066">
+    <row r="1066" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1066" s="31"/>
     </row>
-    <row r="1067">
+    <row r="1067" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1067" s="31"/>
     </row>
-    <row r="1068">
+    <row r="1068" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1068" s="31"/>
     </row>
-    <row r="1069">
+    <row r="1069" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1069" s="31"/>
     </row>
-    <row r="1070">
+    <row r="1070" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1070" s="31"/>
     </row>
-    <row r="1071">
+    <row r="1071" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1071" s="31"/>
     </row>
-    <row r="1072">
+    <row r="1072" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1072" s="31"/>
     </row>
-    <row r="1073">
+    <row r="1073" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1073" s="31"/>
     </row>
-    <row r="1074">
+    <row r="1074" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1074" s="31"/>
     </row>
-    <row r="1075">
+    <row r="1075" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1075" s="31"/>
     </row>
-    <row r="1076">
+    <row r="1076" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1076" s="31"/>
     </row>
-    <row r="1077">
+    <row r="1077" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1077" s="31"/>
     </row>
-    <row r="1078">
+    <row r="1078" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1078" s="31"/>
     </row>
-    <row r="1079">
+    <row r="1079" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1079" s="31"/>
     </row>
-    <row r="1080">
+    <row r="1080" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1080" s="31"/>
     </row>
-    <row r="1081">
+    <row r="1081" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1081" s="31"/>
     </row>
-    <row r="1082">
+    <row r="1082" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1082" s="31"/>
     </row>
-    <row r="1083">
+    <row r="1083" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1083" s="31"/>
     </row>
-    <row r="1084">
+    <row r="1084" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1084" s="31"/>
     </row>
-    <row r="1085">
+    <row r="1085" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1085" s="31"/>
     </row>
-    <row r="1086">
+    <row r="1086" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1086" s="31"/>
     </row>
-    <row r="1087">
+    <row r="1087" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1087" s="31"/>
     </row>
-    <row r="1088">
+    <row r="1088" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1088" s="31"/>
     </row>
-    <row r="1089">
+    <row r="1089" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1089" s="31"/>
     </row>
-    <row r="1090">
+    <row r="1090" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1090" s="31"/>
     </row>
-    <row r="1091">
+    <row r="1091" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1091" s="31"/>
     </row>
-    <row r="1092">
+    <row r="1092" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1092" s="31"/>
     </row>
-    <row r="1093">
+    <row r="1093" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1093" s="31"/>
     </row>
-    <row r="1094">
+    <row r="1094" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1094" s="31"/>
     </row>
-    <row r="1095">
+    <row r="1095" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1095" s="31"/>
     </row>
-    <row r="1096">
+    <row r="1096" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1096" s="31"/>
     </row>
-    <row r="1097">
+    <row r="1097" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1097" s="31"/>
     </row>
-    <row r="1098">
+    <row r="1098" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1098" s="31"/>
     </row>
-    <row r="1099">
+    <row r="1099" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1099" s="31"/>
     </row>
-    <row r="1100">
+    <row r="1100" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1100" s="31"/>
     </row>
-    <row r="1101">
+    <row r="1101" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1101" s="31"/>
     </row>
-    <row r="1102">
+    <row r="1102" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1102" s="31"/>
     </row>
-    <row r="1103">
+    <row r="1103" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1103" s="31"/>
     </row>
-    <row r="1104">
+    <row r="1104" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1104" s="31"/>
     </row>
-    <row r="1105">
+    <row r="1105" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1105" s="31"/>
     </row>
-    <row r="1106">
+    <row r="1106" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1106" s="31"/>
     </row>
-    <row r="1107">
+    <row r="1107" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1107" s="31"/>
     </row>
-    <row r="1108">
+    <row r="1108" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1108" s="31"/>
     </row>
-    <row r="1109">
+    <row r="1109" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1109" s="31"/>
     </row>
-    <row r="1110">
+    <row r="1110" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1110" s="31"/>
     </row>
-    <row r="1111">
+    <row r="1111" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1111" s="31"/>
     </row>
-    <row r="1112">
+    <row r="1112" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1112" s="31"/>
     </row>
-    <row r="1113">
+    <row r="1113" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1113" s="31"/>
     </row>
-    <row r="1114">
+    <row r="1114" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1114" s="31"/>
     </row>
-    <row r="1115">
+    <row r="1115" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1115" s="31"/>
     </row>
-    <row r="1116">
+    <row r="1116" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1116" s="31"/>
     </row>
-    <row r="1117">
+    <row r="1117" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1117" s="31"/>
     </row>
-    <row r="1118">
+    <row r="1118" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1118" s="31"/>
     </row>
-    <row r="1119">
+    <row r="1119" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1119" s="31"/>
     </row>
-    <row r="1120">
+    <row r="1120" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1120" s="31"/>
     </row>
-    <row r="1121">
+    <row r="1121" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1121" s="31"/>
     </row>
-    <row r="1122">
+    <row r="1122" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1122" s="31"/>
     </row>
-    <row r="1123">
+    <row r="1123" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1123" s="31"/>
     </row>
-    <row r="1124">
+    <row r="1124" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1124" s="31"/>
     </row>
-    <row r="1125">
+    <row r="1125" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1125" s="31"/>
     </row>
-    <row r="1126">
+    <row r="1126" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1126" s="31"/>
     </row>
-    <row r="1127">
+    <row r="1127" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1127" s="31"/>
     </row>
-    <row r="1128">
+    <row r="1128" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1128" s="31"/>
     </row>
-    <row r="1129">
+    <row r="1129" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1129" s="31"/>
     </row>
-    <row r="1130">
+    <row r="1130" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1130" s="31"/>
     </row>
-    <row r="1131">
+    <row r="1131" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1131" s="31"/>
     </row>
-    <row r="1132">
+    <row r="1132" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1132" s="31"/>
     </row>
-    <row r="1133">
+    <row r="1133" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1133" s="31"/>
     </row>
-    <row r="1134">
+    <row r="1134" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1134" s="31"/>
     </row>
-    <row r="1135">
+    <row r="1135" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1135" s="31"/>
     </row>
-    <row r="1136">
+    <row r="1136" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1136" s="31"/>
     </row>
-    <row r="1137">
+    <row r="1137" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1137" s="31"/>
     </row>
-    <row r="1138">
+    <row r="1138" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1138" s="31"/>
     </row>
-    <row r="1139">
+    <row r="1139" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1139" s="31"/>
     </row>
-    <row r="1140">
+    <row r="1140" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1140" s="31"/>
     </row>
-    <row r="1141">
+    <row r="1141" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1141" s="31"/>
     </row>
-    <row r="1142">
+    <row r="1142" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1142" s="31"/>
     </row>
-    <row r="1143">
+    <row r="1143" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1143" s="31"/>
     </row>
-    <row r="1144">
+    <row r="1144" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1144" s="31"/>
     </row>
-    <row r="1145">
+    <row r="1145" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1145" s="31"/>
     </row>
-    <row r="1146">
+    <row r="1146" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1146" s="31"/>
     </row>
-    <row r="1147">
+    <row r="1147" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1147" s="31"/>
     </row>
-    <row r="1148">
+    <row r="1148" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1148" s="31"/>
     </row>
-    <row r="1149">
+    <row r="1149" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1149" s="31"/>
     </row>
-    <row r="1150">
+    <row r="1150" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1150" s="31"/>
     </row>
-    <row r="1151">
+    <row r="1151" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1151" s="31"/>
     </row>
-    <row r="1152">
+    <row r="1152" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1152" s="31"/>
     </row>
-    <row r="1153">
+    <row r="1153" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1153" s="31"/>
     </row>
-    <row r="1154">
+    <row r="1154" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1154" s="31"/>
     </row>
-    <row r="1155">
+    <row r="1155" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1155" s="31"/>
     </row>
-    <row r="1156">
+    <row r="1156" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1156" s="31"/>
     </row>
-    <row r="1157">
+    <row r="1157" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1157" s="31"/>
     </row>
-    <row r="1158">
+    <row r="1158" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1158" s="31"/>
     </row>
-    <row r="1159">
+    <row r="1159" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1159" s="31"/>
     </row>
-    <row r="1160">
+    <row r="1160" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1160" s="31"/>
     </row>
-    <row r="1161">
+    <row r="1161" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1161" s="31"/>
     </row>
-    <row r="1162">
+    <row r="1162" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1162" s="31"/>
     </row>
-    <row r="1163">
+    <row r="1163" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1163" s="31"/>
     </row>
-    <row r="1164">
+    <row r="1164" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1164" s="31"/>
     </row>
-    <row r="1165">
+    <row r="1165" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1165" s="31"/>
     </row>
-    <row r="1166">
+    <row r="1166" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1166" s="31"/>
     </row>
-    <row r="1167">
+    <row r="1167" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1167" s="31"/>
     </row>
-    <row r="1168">
+    <row r="1168" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1168" s="31"/>
     </row>
-    <row r="1169">
+    <row r="1169" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1169" s="31"/>
     </row>
-    <row r="1170">
+    <row r="1170" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1170" s="31"/>
     </row>
-    <row r="1171">
+    <row r="1171" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1171" s="31"/>
     </row>
-    <row r="1172">
+    <row r="1172" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1172" s="31"/>
     </row>
-    <row r="1173">
+    <row r="1173" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1173" s="31"/>
     </row>
-    <row r="1174">
+    <row r="1174" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1174" s="31"/>
     </row>
-    <row r="1175">
+    <row r="1175" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1175" s="31"/>
     </row>
-    <row r="1176">
+    <row r="1176" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1176" s="31"/>
     </row>
-    <row r="1177">
+    <row r="1177" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1177" s="31"/>
     </row>
-    <row r="1178">
+    <row r="1178" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1178" s="31"/>
     </row>
-    <row r="1179">
+    <row r="1179" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1179" s="31"/>
     </row>
-    <row r="1180">
+    <row r="1180" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1180" s="31"/>
     </row>
-    <row r="1181">
+    <row r="1181" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1181" s="31"/>
     </row>
-    <row r="1182">
+    <row r="1182" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1182" s="31"/>
     </row>
-    <row r="1183">
+    <row r="1183" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1183" s="31"/>
     </row>
-    <row r="1184">
+    <row r="1184" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1184" s="31"/>
     </row>
-    <row r="1185">
+    <row r="1185" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1185" s="31"/>
     </row>
-    <row r="1186">
+    <row r="1186" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1186" s="31"/>
     </row>
-    <row r="1187">
+    <row r="1187" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1187" s="31"/>
     </row>
-    <row r="1188">
+    <row r="1188" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1188" s="31"/>
     </row>
-    <row r="1189">
+    <row r="1189" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1189" s="31"/>
     </row>
-    <row r="1190">
+    <row r="1190" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1190" s="31"/>
     </row>
-    <row r="1191">
+    <row r="1191" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1191" s="31"/>
     </row>
-    <row r="1192">
+    <row r="1192" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1192" s="31"/>
     </row>
-    <row r="1193">
+    <row r="1193" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1193" s="31"/>
     </row>
-    <row r="1194">
+    <row r="1194" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1194" s="31"/>
     </row>
-    <row r="1195">
+    <row r="1195" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1195" s="31"/>
     </row>
-    <row r="1196">
+    <row r="1196" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1196" s="31"/>
     </row>
-    <row r="1197">
+    <row r="1197" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1197" s="31"/>
     </row>
-    <row r="1198">
+    <row r="1198" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1198" s="31"/>
     </row>
-    <row r="1199">
+    <row r="1199" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1199" s="31"/>
     </row>
-    <row r="1200">
+    <row r="1200" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1200" s="31"/>
     </row>
-    <row r="1201">
+    <row r="1201" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1201" s="31"/>
     </row>
-    <row r="1202">
+    <row r="1202" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1202" s="31"/>
     </row>
-    <row r="1203">
+    <row r="1203" spans="5:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1203" s="31"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>